--- a/data_indexpoints_tidy/tallmateriale_1952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_1952.xlsx
@@ -10,7 +10,8 @@
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
     <sheet name="punktindeks_maned" sheetId="2" r:id="rId2"/>
     <sheet name="byindeks_aarlig" sheetId="3" r:id="rId3"/>
-    <sheet name="by_glid_indeks" sheetId="4" r:id="rId4"/>
+    <sheet name="byindeks_hittil" sheetId="4" r:id="rId4"/>
+    <sheet name="by_glid_indeks" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3029,6 +3030,9 @@
       <c r="N10">
         <v>3.08</v>
       </c>
+      <c r="O10">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3293,6 +3297,9 @@
       <c r="N19">
         <v>-1.74</v>
       </c>
+      <c r="O19">
+        <v>-4.37</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4409,6 +4416,9 @@
       <c r="N46">
         <v>0.97</v>
       </c>
+      <c r="O46">
+        <v>-1.06</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4748,6 +4758,9 @@
       <c r="N55">
         <v>5.86</v>
       </c>
+      <c r="O55">
+        <v>7.79</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5174,6 +5187,9 @@
       <c r="N64">
         <v>1.27</v>
       </c>
+      <c r="O64">
+        <v>-0.67</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5543,6 +5559,9 @@
       <c r="N73">
         <v>-0.8</v>
       </c>
+      <c r="O73">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6233,6 +6252,9 @@
       <c r="L91">
         <v>2.25</v>
       </c>
+      <c r="O91">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6677,6 +6699,9 @@
       <c r="N100">
         <v>2.8</v>
       </c>
+      <c r="O100">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6980,6 +7005,9 @@
       <c r="N109">
         <v>3.71</v>
       </c>
+      <c r="O109">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7364,6 +7392,9 @@
       <c r="N118">
         <v>2.08</v>
       </c>
+      <c r="O118">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8075,6 +8106,9 @@
       <c r="N136">
         <v>6.69</v>
       </c>
+      <c r="O136">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8486,6 +8520,9 @@
       <c r="N145">
         <v>0.36</v>
       </c>
+      <c r="O145">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9194,6 +9231,9 @@
       <c r="N163">
         <v>3.07</v>
       </c>
+      <c r="O163">
+        <v>3.78</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9509,6 +9549,9 @@
       <c r="N172">
         <v>0.37</v>
       </c>
+      <c r="O172">
+        <v>-0.66</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9983,6 +10026,9 @@
       <c r="N181">
         <v>-2.93</v>
       </c>
+      <c r="O181">
+        <v>-4.07</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11093,6 +11139,9 @@
       <c r="N208">
         <v>-1.65</v>
       </c>
+      <c r="O208">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11432,6 +11481,9 @@
       <c r="N217">
         <v>5.1</v>
       </c>
+      <c r="O217">
+        <v>-0.46</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12431,6 +12483,9 @@
       <c r="N244">
         <v>2.36</v>
       </c>
+      <c r="O244">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -12707,6 +12762,9 @@
       <c r="N253">
         <v>0.15</v>
       </c>
+      <c r="O253">
+        <v>4.39</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13073,6 +13131,9 @@
       <c r="N262">
         <v>0.02</v>
       </c>
+      <c r="O262">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -13556,6 +13617,9 @@
       <c r="N271">
         <v>2.06</v>
       </c>
+      <c r="O271">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13898,6 +13962,9 @@
       <c r="N280">
         <v>-1.42</v>
       </c>
+      <c r="O280">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -14311,6 +14378,9 @@
       </c>
       <c r="L289">
         <v>1.49</v>
+      </c>
+      <c r="O289">
+        <v>-4.62</v>
       </c>
     </row>
   </sheetData>
@@ -14469,10 +14539,10 @@
         <v>0.9989</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>0.7874786094722389</v>
+        <v>0.7697461301602103</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -14838,19 +14908,19 @@
         <v>2025</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="E10">
-        <v>1.0187</v>
+        <v>1.0167</v>
       </c>
       <c r="F10">
         <v>29</v>
       </c>
       <c r="G10">
-        <v>0.499541715016147</v>
+        <v>0.4782811906435095</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -14869,19 +14939,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>okt</t>
+          <t>nov</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>jan-okt</t>
+          <t>jan-nov</t>
         </is>
       </c>
       <c r="M10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N10">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -14904,7 +14974,7 @@
         <v>26</v>
       </c>
       <c r="G11">
-        <v>0.9114267166323439</v>
+        <v>0.8962114472064011</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -14958,7 +15028,7 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>1.163969317854175</v>
+        <v>1.152031348367678</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -15012,7 +15082,7 @@
         <v>26</v>
       </c>
       <c r="G13">
-        <v>1.508264948641842</v>
+        <v>1.500233182236953</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -15040,10 +15110,10 @@
         </is>
       </c>
       <c r="M13">
-        <v>-9.6</v>
+        <v>-9.5</v>
       </c>
       <c r="N13">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="14">
@@ -15066,7 +15136,7 @@
         <v>26</v>
       </c>
       <c r="G14">
-        <v>1.763318281131556</v>
+        <v>1.756220916515361</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -15094,10 +15164,10 @@
         </is>
       </c>
       <c r="M14">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="N14">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="15">
@@ -15120,7 +15190,7 @@
         <v>29</v>
       </c>
       <c r="G15">
-        <v>1.90701371582603</v>
+        <v>1.899938372080314</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -15174,7 +15244,7 @@
         <v>29</v>
       </c>
       <c r="G16">
-        <v>1.963888665851909</v>
+        <v>1.956945687054277</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -15228,7 +15298,7 @@
         <v>29</v>
       </c>
       <c r="G17">
-        <v>2.034536004781982</v>
+        <v>2.027815932839372</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -15269,7 +15339,1010 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>year_base</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>index_p</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>index_i</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n_trp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>standard_error</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>index_type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>year_from_to</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>area_name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>month_name_short</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ci_lower</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ci_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>2017</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>-0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.9992</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>0.4810906208832801</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2016-2017</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+      <c r="N2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.0002</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>0.782266773771121</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2017-2018</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>-1.5</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>1.0027</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0.7758980011028405</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>-1.2</v>
+      </c>
+      <c r="N4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>-6.5</v>
+      </c>
+      <c r="E5">
+        <v>0.9353</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>1.101597624967851</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="N5">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>2021</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>1.0147</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>0.9524375866066149</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>-0.4</v>
+      </c>
+      <c r="N6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>2022</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>1.0393</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0.5880972616331673</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>2.7</v>
+      </c>
+      <c r="N7">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>1.0071</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>0.4793453608242583</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>-0.2</v>
+      </c>
+      <c r="N8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>-0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.9992</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>0.5472536358193828</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>-1.2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1.7</v>
+      </c>
+      <c r="E10">
+        <v>1.0167</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>0.4782811906435095</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>-0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.9993998399999999</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>0.9178875357061033</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2016-2018</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>-1.9</v>
+      </c>
+      <c r="N11">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>1.002098219568</v>
+      </c>
+      <c r="F12">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>1.203502927673548</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2016-2019</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>-2.2</v>
+      </c>
+      <c r="N12">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>-6.3</v>
+      </c>
+      <c r="E13">
+        <v>0.9372624647619504</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>1.576657205325181</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2016-2020</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>-9.4</v>
+      </c>
+      <c r="N13">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>-4.9</v>
+      </c>
+      <c r="E14">
+        <v>0.951040222993951</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>1.83209695808972</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2016-2021</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M14">
+        <v>-8.5</v>
+      </c>
+      <c r="N14">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>-1.2</v>
+      </c>
+      <c r="E15">
+        <v>0.9884161037576131</v>
+      </c>
+      <c r="F15">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>1.984572452784165</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2016-2022</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M15">
+        <v>-5.1</v>
+      </c>
+      <c r="N15">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>-0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.9954338580942923</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>2.054074840593501</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2016-2023</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>-4.5</v>
+      </c>
+      <c r="N16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>-0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.9946375110078168</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>2.123525263239006</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2016-2024</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M17">
+        <v>-4.7</v>
+      </c>
+      <c r="N17">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>1.1</v>
+      </c>
+      <c r="E18">
+        <v>1.011247957441647</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>2.210800539664343</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2016-2025</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Buskerudbyen</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M18">
+        <v>-3.2</v>
+      </c>
+      <c r="N18">
+        <v>5.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19622,87 +20695,87 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.000833051408335</v>
+        <v>1.028895540301478</v>
       </c>
       <c r="B97">
-        <v>0.08330514083354501</v>
+        <v>2.88955403014779</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <v>9.854442579951536</v>
+        <v>15.297955503007</v>
       </c>
       <c r="E97">
-        <v>4.065189308120775</v>
+        <v>6.154939367728487</v>
       </c>
       <c r="F97">
-        <v>1.294985015127438</v>
+        <v>1.573646145694993</v>
       </c>
       <c r="G97">
-        <v>-2.8</v>
+        <v>-0.4</v>
       </c>
       <c r="H97">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2016 - (jan 2017 - des 2018)</t>
+          <t>2016 - (des 2024 - nov 2025)</t>
         </is>
       </c>
       <c r="J97" s="2">
-        <v>43435</v>
+        <v>45962</v>
       </c>
       <c r="K97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L97">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>24_months</t>
+          <t>12_months</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.009795443884318</v>
+        <v>1.000833051408335</v>
       </c>
       <c r="B98">
-        <v>0.9795443884317967</v>
+        <v>0.08330514083354501</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98">
-        <v>8.972857570833847</v>
+        <v>9.854442579951536</v>
       </c>
       <c r="E98">
-        <v>2.437847647350545</v>
+        <v>4.065189308120775</v>
       </c>
       <c r="F98">
-        <v>0.8138440148590388</v>
+        <v>1.294985015127438</v>
       </c>
       <c r="G98">
-        <v>-0.8</v>
+        <v>-2.8</v>
       </c>
       <c r="H98">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2016 - (feb 2017 - jan 2019)</t>
+          <t>2016 - (jan 2017 - des 2018)</t>
         </is>
       </c>
       <c r="J98" s="2">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L98">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -19712,10 +20785,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>1.008954221802205</v>
+        <v>1.009795443884318</v>
       </c>
       <c r="B99">
-        <v>0.8954221802205398</v>
+        <v>0.9795443884317967</v>
       </c>
       <c r="C99">
         <v>11</v>
@@ -19724,27 +20797,27 @@
         <v>8.972857570833847</v>
       </c>
       <c r="E99">
-        <v>2.489865125578424</v>
+        <v>2.437847647350545</v>
       </c>
       <c r="F99">
-        <v>0.8312093794952695</v>
+        <v>0.8138440148590388</v>
       </c>
       <c r="G99">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="H99">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2016 - (mar 2017 - feb 2019)</t>
+          <t>2016 - (feb 2017 - jan 2019)</t>
         </is>
       </c>
       <c r="J99" s="2">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>2019</v>
@@ -19757,10 +20830,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>1.008517998223425</v>
+        <v>1.008954221802205</v>
       </c>
       <c r="B100">
-        <v>0.8517998223425138</v>
+        <v>0.8954221802205398</v>
       </c>
       <c r="C100">
         <v>11</v>
@@ -19769,27 +20842,27 @@
         <v>8.972857570833847</v>
       </c>
       <c r="E100">
-        <v>2.590322949888395</v>
+        <v>2.489865125578424</v>
       </c>
       <c r="F100">
-        <v>0.8647459293076765</v>
+        <v>0.8312093794952695</v>
       </c>
       <c r="G100">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="H100">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2016 - (apr 2017 - mar 2019)</t>
+          <t>2016 - (mar 2017 - feb 2019)</t>
         </is>
       </c>
       <c r="J100" s="2">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L100">
         <v>2019</v>
@@ -19802,10 +20875,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>1.010571124223906</v>
+        <v>1.008517998223425</v>
       </c>
       <c r="B101">
-        <v>1.057112422390638</v>
+        <v>0.8517998223425138</v>
       </c>
       <c r="C101">
         <v>11</v>
@@ -19814,27 +20887,27 @@
         <v>8.972857570833847</v>
       </c>
       <c r="E101">
-        <v>2.668096799545189</v>
+        <v>2.590322949888395</v>
       </c>
       <c r="F101">
-        <v>0.8907097265632262</v>
+        <v>0.8647459293076765</v>
       </c>
       <c r="G101">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="H101">
+        <v>2.8</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2016 - (apr 2017 - mar 2019)</t>
+        </is>
+      </c>
+      <c r="J101" s="2">
+        <v>43525</v>
+      </c>
+      <c r="K101">
         <v>3</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>2016 - (mai 2017 - apr 2019)</t>
-        </is>
-      </c>
-      <c r="J101" s="2">
-        <v>43556</v>
-      </c>
-      <c r="K101">
-        <v>4</v>
       </c>
       <c r="L101">
         <v>2019</v>
@@ -19847,39 +20920,39 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1.012456297093856</v>
+        <v>1.010571124223906</v>
       </c>
       <c r="B102">
-        <v>1.245629709385554</v>
+        <v>1.057112422390638</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>8.015730457547399</v>
+        <v>8.972857570833847</v>
       </c>
       <c r="E102">
-        <v>2.879853566591148</v>
+        <v>2.668096799545189</v>
       </c>
       <c r="F102">
-        <v>1.017182437425532</v>
+        <v>0.8907097265632262</v>
       </c>
       <c r="G102">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="H102">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2016 - (jun 2017 - mai 2019)</t>
+          <t>2016 - (mai 2017 - apr 2019)</t>
         </is>
       </c>
       <c r="J102" s="2">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="K102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L102">
         <v>2019</v>
@@ -19892,10 +20965,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1.012535068217154</v>
+        <v>1.012456297093856</v>
       </c>
       <c r="B103">
-        <v>1.253506821715367</v>
+        <v>1.245629709385554</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -19904,27 +20977,27 @@
         <v>8.015730457547399</v>
       </c>
       <c r="E103">
-        <v>2.932222266874299</v>
+        <v>2.879853566591148</v>
       </c>
       <c r="F103">
-        <v>1.035679392554357</v>
+        <v>1.017182437425532</v>
       </c>
       <c r="G103">
         <v>-1.1</v>
       </c>
       <c r="H103">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2016 - (jul 2017 - jun 2019)</t>
+          <t>2016 - (jun 2017 - mai 2019)</t>
         </is>
       </c>
       <c r="J103" s="2">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="K103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L103">
         <v>2019</v>
@@ -19937,39 +21010,39 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.01371102896795</v>
+        <v>1.012535068217154</v>
       </c>
       <c r="B104">
-        <v>1.371102896794985</v>
+        <v>1.253506821715367</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>7.58347622798345</v>
+        <v>8.015730457547399</v>
       </c>
       <c r="E104">
-        <v>2.922590238031595</v>
+        <v>2.932222266874299</v>
       </c>
       <c r="F104">
-        <v>1.061289248236964</v>
+        <v>1.035679392554357</v>
       </c>
       <c r="G104">
         <v>-1.1</v>
       </c>
       <c r="H104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2016 - (aug 2017 - jul 2019)</t>
+          <t>2016 - (jul 2017 - jun 2019)</t>
         </is>
       </c>
       <c r="J104" s="2">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="K104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L104">
         <v>2019</v>
@@ -19982,10 +21055,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>1.014920981055466</v>
+        <v>1.01371102896795</v>
       </c>
       <c r="B105">
-        <v>1.492098105546602</v>
+        <v>1.371102896794985</v>
       </c>
       <c r="C105">
         <v>9</v>
@@ -19994,27 +21067,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E105">
-        <v>2.962202104146436</v>
+        <v>2.922590238031595</v>
       </c>
       <c r="F105">
-        <v>1.075673627909223</v>
+        <v>1.061289248236964</v>
       </c>
       <c r="G105">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2016 - (sep 2017 - aug 2019)</t>
+          <t>2016 - (aug 2017 - jul 2019)</t>
         </is>
       </c>
       <c r="J105" s="2">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="K105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L105">
         <v>2019</v>
@@ -20027,10 +21100,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>1.014794430882737</v>
+        <v>1.014920981055466</v>
       </c>
       <c r="B106">
-        <v>1.47944308827368</v>
+        <v>1.492098105546602</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -20039,10 +21112,10 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E106">
-        <v>2.988703853885482</v>
+        <v>2.962202104146436</v>
       </c>
       <c r="F106">
-        <v>1.08529729040269</v>
+        <v>1.075673627909223</v>
       </c>
       <c r="G106">
         <v>-1</v>
@@ -20052,14 +21125,14 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2016 - (okt 2017 - sep 2019)</t>
+          <t>2016 - (sep 2017 - aug 2019)</t>
         </is>
       </c>
       <c r="J106" s="2">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="K106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L106">
         <v>2019</v>
@@ -20072,10 +21145,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>1.016166249470255</v>
+        <v>1.014794430882737</v>
       </c>
       <c r="B107">
-        <v>1.616624947025502</v>
+        <v>1.47944308827368</v>
       </c>
       <c r="C107">
         <v>9</v>
@@ -20084,27 +21157,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E107">
-        <v>3.009843410204188</v>
+        <v>2.988703853885482</v>
       </c>
       <c r="F107">
-        <v>1.092973762985672</v>
+        <v>1.08529729040269</v>
       </c>
       <c r="G107">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="H107">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2016 - (nov 2017 - okt 2019)</t>
+          <t>2016 - (okt 2017 - sep 2019)</t>
         </is>
       </c>
       <c r="J107" s="2">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="K107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L107">
         <v>2019</v>
@@ -20117,10 +21190,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.016047056865708</v>
+        <v>1.016166249470255</v>
       </c>
       <c r="B108">
-        <v>1.604705686570806</v>
+        <v>1.616624947025502</v>
       </c>
       <c r="C108">
         <v>9</v>
@@ -20129,27 +21202,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E108">
-        <v>3.08605936263972</v>
+        <v>3.009843410204188</v>
       </c>
       <c r="F108">
-        <v>1.120650297934495</v>
+        <v>1.092973762985672</v>
       </c>
       <c r="G108">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="H108">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2016 - (des 2017 - nov 2019)</t>
+          <t>2016 - (nov 2017 - okt 2019)</t>
         </is>
       </c>
       <c r="J108" s="2">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="K108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L108">
         <v>2019</v>
@@ -20162,10 +21235,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>1.016031605972526</v>
+        <v>1.016047056865708</v>
       </c>
       <c r="B109">
-        <v>1.603160597252606</v>
+        <v>1.604705686570806</v>
       </c>
       <c r="C109">
         <v>9</v>
@@ -20174,27 +21247,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E109">
-        <v>3.172363504818851</v>
+        <v>3.08605936263972</v>
       </c>
       <c r="F109">
-        <v>1.151990188481285</v>
+        <v>1.120650297934495</v>
       </c>
       <c r="G109">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="H109">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2016 - (jan 2018 - des 2019)</t>
+          <t>2016 - (des 2017 - nov 2019)</t>
         </is>
       </c>
       <c r="J109" s="2">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="K109">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L109">
         <v>2019</v>
@@ -20207,10 +21280,10 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.017978050635052</v>
+        <v>1.016031605972526</v>
       </c>
       <c r="B110">
-        <v>1.797805063505176</v>
+        <v>1.603160597252606</v>
       </c>
       <c r="C110">
         <v>9</v>
@@ -20219,30 +21292,30 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E110">
-        <v>3.226808713488112</v>
+        <v>3.172363504818851</v>
       </c>
       <c r="F110">
-        <v>1.171761045793674</v>
+        <v>1.151990188481285</v>
       </c>
       <c r="G110">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="H110">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2016 - (feb 2018 - jan 2020)</t>
+          <t>2016 - (jan 2018 - des 2019)</t>
         </is>
       </c>
       <c r="J110" s="2">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L110">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -20252,10 +21325,10 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>1.019532704791891</v>
+        <v>1.017978050635052</v>
       </c>
       <c r="B111">
-        <v>1.953270479189051</v>
+        <v>1.797805063505176</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -20264,27 +21337,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E111">
-        <v>3.289609698245605</v>
+        <v>3.226808713488112</v>
       </c>
       <c r="F111">
-        <v>1.194566161965796</v>
+        <v>1.171761045793674</v>
       </c>
       <c r="G111">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="H111">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2016 - (mar 2018 - feb 2020)</t>
+          <t>2016 - (feb 2018 - jan 2020)</t>
         </is>
       </c>
       <c r="J111" s="2">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>2020</v>
@@ -20297,10 +21370,10 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>1.013205196155443</v>
+        <v>1.019532704791891</v>
       </c>
       <c r="B112">
-        <v>1.320519615544313</v>
+        <v>1.953270479189051</v>
       </c>
       <c r="C112">
         <v>9</v>
@@ -20309,27 +21382,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E112">
-        <v>3.343471244364196</v>
+        <v>3.289609698245605</v>
       </c>
       <c r="F112">
-        <v>1.214125072087791</v>
+        <v>1.194566161965796</v>
       </c>
       <c r="G112">
-        <v>-1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="H112">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2016 - (apr 2018 - mar 2020)</t>
+          <t>2016 - (mar 2018 - feb 2020)</t>
         </is>
       </c>
       <c r="J112" s="2">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112">
         <v>2020</v>
@@ -20342,10 +21415,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>1.003683399292817</v>
+        <v>1.013205196155443</v>
       </c>
       <c r="B113">
-        <v>0.3683399292817358</v>
+        <v>1.320519615544313</v>
       </c>
       <c r="C113">
         <v>9</v>
@@ -20354,27 +21427,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E113">
-        <v>3.613185055432354</v>
+        <v>3.343471244364196</v>
       </c>
       <c r="F113">
-        <v>1.312067083958891</v>
+        <v>1.214125072087791</v>
       </c>
       <c r="G113">
-        <v>-2.7</v>
+        <v>-1.5</v>
       </c>
       <c r="H113">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2016 - (mai 2018 - apr 2020)</t>
+          <t>2016 - (apr 2018 - mar 2020)</t>
         </is>
       </c>
       <c r="J113" s="2">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L113">
         <v>2020</v>
@@ -20387,10 +21460,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1.000751408372324</v>
+        <v>1.003683399292817</v>
       </c>
       <c r="B114">
-        <v>0.07514083723239029</v>
+        <v>0.3683399292817358</v>
       </c>
       <c r="C114">
         <v>9</v>
@@ -20399,27 +21472,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E114">
-        <v>3.85821848211252</v>
+        <v>3.613185055432354</v>
       </c>
       <c r="F114">
-        <v>1.401046831379614</v>
+        <v>1.312067083958891</v>
       </c>
       <c r="G114">
-        <v>-3.2</v>
+        <v>-2.7</v>
       </c>
       <c r="H114">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2016 - (jun 2018 - mai 2020)</t>
+          <t>2016 - (mai 2018 - apr 2020)</t>
         </is>
       </c>
       <c r="J114" s="2">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="K114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L114">
         <v>2020</v>
@@ -20432,10 +21505,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>1.000255876155272</v>
+        <v>1.000751408372324</v>
       </c>
       <c r="B115">
-        <v>0.02558761552720057</v>
+        <v>0.07514083723239029</v>
       </c>
       <c r="C115">
         <v>9</v>
@@ -20444,27 +21517,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E115">
-        <v>4.076909263931265</v>
+        <v>3.85821848211252</v>
       </c>
       <c r="F115">
-        <v>1.480460692554039</v>
+        <v>1.401046831379614</v>
       </c>
       <c r="G115">
-        <v>-3.4</v>
+        <v>-3.2</v>
       </c>
       <c r="H115">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2016 - (jul 2018 - jun 2020)</t>
+          <t>2016 - (jun 2018 - mai 2020)</t>
         </is>
       </c>
       <c r="J115" s="2">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="K115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L115">
         <v>2020</v>
@@ -20477,10 +21550,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1.002211149899616</v>
+        <v>1.000255876155272</v>
       </c>
       <c r="B116">
-        <v>0.2211149899616016</v>
+        <v>0.02558761552720057</v>
       </c>
       <c r="C116">
         <v>9</v>
@@ -20489,27 +21562,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E116">
-        <v>4.286637951906366</v>
+        <v>4.076909263931265</v>
       </c>
       <c r="F116">
-        <v>1.556620120823645</v>
+        <v>1.480460692554039</v>
       </c>
       <c r="G116">
         <v>-3.4</v>
       </c>
       <c r="H116">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2016 - (aug 2018 - jul 2020)</t>
+          <t>2016 - (jul 2018 - jun 2020)</t>
         </is>
       </c>
       <c r="J116" s="2">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="K116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L116">
         <v>2020</v>
@@ -20522,10 +21595,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>1.001024374151873</v>
+        <v>1.002211149899616</v>
       </c>
       <c r="B117">
-        <v>0.1024374151872953</v>
+        <v>0.2211149899616016</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -20534,27 +21607,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E117">
-        <v>4.454855445688163</v>
+        <v>4.286637951906366</v>
       </c>
       <c r="F117">
-        <v>1.617705460531147</v>
+        <v>1.556620120823645</v>
       </c>
       <c r="G117">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="H117">
         <v>3.8</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2016 - (sep 2018 - aug 2020)</t>
+          <t>2016 - (aug 2018 - jul 2020)</t>
         </is>
       </c>
       <c r="J117" s="2">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L117">
         <v>2020</v>
@@ -20567,10 +21640,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.002252352281435</v>
+        <v>1.001024374151873</v>
       </c>
       <c r="B118">
-        <v>0.2252352281434833</v>
+        <v>0.1024374151872953</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -20579,27 +21652,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E118">
-        <v>4.574903293129482</v>
+        <v>4.454855445688163</v>
       </c>
       <c r="F118">
-        <v>1.66129880731837</v>
+        <v>1.617705460531147</v>
       </c>
       <c r="G118">
         <v>-3.6</v>
       </c>
       <c r="H118">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2016 - (okt 2018 - sep 2020)</t>
+          <t>2016 - (sep 2018 - aug 2020)</t>
         </is>
       </c>
       <c r="J118" s="2">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="K118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L118">
         <v>2020</v>
@@ -20612,10 +21685,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>1.001442284024606</v>
+        <v>1.002252352281435</v>
       </c>
       <c r="B119">
-        <v>0.1442284024605778</v>
+        <v>0.2252352281434833</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -20624,27 +21697,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E119">
-        <v>4.699003516398397</v>
+        <v>4.574903293129482</v>
       </c>
       <c r="F119">
-        <v>1.706363705895398</v>
+        <v>1.66129880731837</v>
       </c>
       <c r="G119">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="H119">
         <v>4.1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2016 - (nov 2018 - okt 2020)</t>
+          <t>2016 - (okt 2018 - sep 2020)</t>
         </is>
       </c>
       <c r="J119" s="2">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="K119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L119">
         <v>2020</v>
@@ -20657,10 +21730,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.9963387068552202</v>
+        <v>1.001442284024606</v>
       </c>
       <c r="B120">
-        <v>-0.3661293144779809</v>
+        <v>0.1442284024605778</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -20669,27 +21742,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E120">
-        <v>4.943915366828183</v>
+        <v>4.699003516398397</v>
       </c>
       <c r="F120">
-        <v>1.795299304955639</v>
+        <v>1.706363705895398</v>
       </c>
       <c r="G120">
-        <v>-4.5</v>
+        <v>-3.8</v>
       </c>
       <c r="H120">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2016 - (des 2018 - nov 2020)</t>
+          <t>2016 - (nov 2018 - okt 2020)</t>
         </is>
       </c>
       <c r="J120" s="2">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="K120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L120">
         <v>2020</v>
@@ -20702,39 +21775,39 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.992284593913062</v>
+        <v>0.9963387068552202</v>
       </c>
       <c r="B121">
-        <v>-0.7715406086937993</v>
+        <v>-0.3661293144779809</v>
       </c>
       <c r="C121">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>7.58347622798345</v>
+      </c>
+      <c r="E121">
+        <v>4.943915366828183</v>
+      </c>
+      <c r="F121">
+        <v>1.795299304955639</v>
+      </c>
+      <c r="G121">
+        <v>-4.5</v>
+      </c>
+      <c r="H121">
+        <v>3.8</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2016 - (des 2018 - nov 2020)</t>
+        </is>
+      </c>
+      <c r="J121" s="2">
+        <v>44136</v>
+      </c>
+      <c r="K121">
         <v>11</v>
-      </c>
-      <c r="D121">
-        <v>9.456981142527864</v>
-      </c>
-      <c r="E121">
-        <v>4.605999712910967</v>
-      </c>
-      <c r="F121">
-        <v>1.49777868231124</v>
-      </c>
-      <c r="G121">
-        <v>-4.1</v>
-      </c>
-      <c r="H121">
-        <v>2.6</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>2016 - (jan 2019 - des 2020)</t>
-        </is>
-      </c>
-      <c r="J121" s="2">
-        <v>44166</v>
-      </c>
-      <c r="K121">
-        <v>12</v>
       </c>
       <c r="L121">
         <v>2020</v>
@@ -20747,10 +21820,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.9859137139661386</v>
+        <v>0.992284593913062</v>
       </c>
       <c r="B122">
-        <v>-1.408628603386142</v>
+        <v>-0.7715406086937993</v>
       </c>
       <c r="C122">
         <v>11</v>
@@ -20759,30 +21832,30 @@
         <v>9.456981142527864</v>
       </c>
       <c r="E122">
-        <v>4.725629392242077</v>
+        <v>4.605999712910967</v>
       </c>
       <c r="F122">
-        <v>1.536679853531814</v>
+        <v>1.49777868231124</v>
       </c>
       <c r="G122">
-        <v>-4.8</v>
+        <v>-4.1</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2016 - (feb 2019 - jan 2021)</t>
+          <t>2016 - (jan 2019 - des 2020)</t>
         </is>
       </c>
       <c r="J122" s="2">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L122">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -20792,10 +21865,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.9834624585250831</v>
+        <v>0.9859137139661386</v>
       </c>
       <c r="B123">
-        <v>-1.653754147491693</v>
+        <v>-1.408628603386142</v>
       </c>
       <c r="C123">
         <v>11</v>
@@ -20804,27 +21877,27 @@
         <v>9.456981142527864</v>
       </c>
       <c r="E123">
-        <v>4.840232093364747</v>
+        <v>4.725629392242077</v>
       </c>
       <c r="F123">
-        <v>1.573946352310717</v>
+        <v>1.536679853531814</v>
       </c>
       <c r="G123">
-        <v>-5.2</v>
+        <v>-4.8</v>
       </c>
       <c r="H123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2016 - (mar 2019 - feb 2021)</t>
+          <t>2016 - (feb 2019 - jan 2021)</t>
         </is>
       </c>
       <c r="J123" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123">
         <v>2021</v>
@@ -20837,10 +21910,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.9791515272235792</v>
+        <v>0.9834624585250831</v>
       </c>
       <c r="B124">
-        <v>-2.084847277642077</v>
+        <v>-1.653754147491693</v>
       </c>
       <c r="C124">
         <v>11</v>
@@ -20849,27 +21922,27 @@
         <v>9.456981142527864</v>
       </c>
       <c r="E124">
-        <v>4.854343232320095</v>
+        <v>4.840232093364747</v>
       </c>
       <c r="F124">
-        <v>1.578535011543849</v>
+        <v>1.573946352310717</v>
       </c>
       <c r="G124">
-        <v>-5.6</v>
+        <v>-5.2</v>
       </c>
       <c r="H124">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2016 - (apr 2019 - mar 2021)</t>
+          <t>2016 - (mar 2019 - feb 2021)</t>
         </is>
       </c>
       <c r="J124" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L124">
         <v>2021</v>
@@ -20882,39 +21955,39 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.9631270360612482</v>
+        <v>0.9791515272235792</v>
       </c>
       <c r="B125">
-        <v>-3.687296393875183</v>
+        <v>-2.084847277642077</v>
       </c>
       <c r="C125">
         <v>11</v>
       </c>
       <c r="D125">
-        <v>9.540387932509919</v>
+        <v>9.456981142527864</v>
       </c>
       <c r="E125">
-        <v>5.348496876772546</v>
+        <v>4.854343232320095</v>
       </c>
       <c r="F125">
-        <v>1.731604593983072</v>
+        <v>1.578535011543849</v>
       </c>
       <c r="G125">
-        <v>-7.5</v>
+        <v>-5.6</v>
       </c>
       <c r="H125">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2016 - (mai 2019 - apr 2021)</t>
+          <t>2016 - (apr 2019 - mar 2021)</t>
         </is>
       </c>
       <c r="J125" s="2">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="K125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L125">
         <v>2021</v>
@@ -20927,39 +22000,39 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.9558880226583494</v>
+        <v>0.9631270360612482</v>
       </c>
       <c r="B126">
-        <v>-4.411197734165063</v>
+        <v>-3.687296393875183</v>
       </c>
       <c r="C126">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>10.45777066207442</v>
+        <v>9.540387932509919</v>
       </c>
       <c r="E126">
-        <v>5.338457917560517</v>
+        <v>5.348496876772546</v>
       </c>
       <c r="F126">
-        <v>1.65080686707427</v>
+        <v>1.731604593983072</v>
       </c>
       <c r="G126">
-        <v>-8</v>
+        <v>-7.5</v>
       </c>
       <c r="H126">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2016 - (jun 2019 - mai 2021)</t>
+          <t>2016 - (mai 2019 - apr 2021)</t>
         </is>
       </c>
       <c r="J126" s="2">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="K126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L126">
         <v>2021</v>
@@ -20972,10 +22045,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.9566047369020154</v>
+        <v>0.9558880226583494</v>
       </c>
       <c r="B127">
-        <v>-4.339526309798458</v>
+        <v>-4.411197734165063</v>
       </c>
       <c r="C127">
         <v>12</v>
@@ -20984,27 +22057,27 @@
         <v>10.45777066207442</v>
       </c>
       <c r="E127">
-        <v>5.364462539399367</v>
+        <v>5.338457917560517</v>
       </c>
       <c r="F127">
-        <v>1.658848254488046</v>
+        <v>1.65080686707427</v>
       </c>
       <c r="G127">
         <v>-8</v>
       </c>
       <c r="H127">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2016 - (jul 2019 - jun 2021)</t>
+          <t>2016 - (jun 2019 - mai 2021)</t>
         </is>
       </c>
       <c r="J127" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="K127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L127">
         <v>2021</v>
@@ -21017,10 +22090,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.9580216828847021</v>
+        <v>0.9566047369020154</v>
       </c>
       <c r="B128">
-        <v>-4.197831711529787</v>
+        <v>-4.339526309798458</v>
       </c>
       <c r="C128">
         <v>12</v>
@@ -21029,27 +22102,27 @@
         <v>10.45777066207442</v>
       </c>
       <c r="E128">
-        <v>5.436565035401619</v>
+        <v>5.364462539399367</v>
       </c>
       <c r="F128">
-        <v>1.681144448889462</v>
+        <v>1.658848254488046</v>
       </c>
       <c r="G128">
-        <v>-7.9</v>
+        <v>-8</v>
       </c>
       <c r="H128">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2016 - (aug 2019 - jul 2021)</t>
+          <t>2016 - (jul 2019 - jun 2021)</t>
         </is>
       </c>
       <c r="J128" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="K128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L128">
         <v>2021</v>
@@ -21062,39 +22135,39 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.9621286543780612</v>
+        <v>0.9580216828847021</v>
       </c>
       <c r="B129">
-        <v>-3.787134562193883</v>
+        <v>-4.197831711529787</v>
       </c>
       <c r="C129">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D129">
-        <v>11.24254507255552</v>
+        <v>10.45777066207442</v>
       </c>
       <c r="E129">
-        <v>5.657779239380458</v>
+        <v>5.436565035401619</v>
       </c>
       <c r="F129">
-        <v>1.687383037581586</v>
+        <v>1.681144448889462</v>
       </c>
       <c r="G129">
-        <v>-7.5</v>
+        <v>-7.9</v>
       </c>
       <c r="H129">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2016 - (sep 2019 - aug 2021)</t>
+          <t>2016 - (aug 2019 - jul 2021)</t>
         </is>
       </c>
       <c r="J129" s="2">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="K129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L129">
         <v>2021</v>
@@ -21107,10 +22180,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.9630244175934685</v>
+        <v>0.9621286543780612</v>
       </c>
       <c r="B130">
-        <v>-3.697558240653154</v>
+        <v>-3.787134562193883</v>
       </c>
       <c r="C130">
         <v>13</v>
@@ -21119,27 +22192,27 @@
         <v>11.24254507255552</v>
       </c>
       <c r="E130">
-        <v>5.698295866412695</v>
+        <v>5.657779239380458</v>
       </c>
       <c r="F130">
-        <v>1.699466766249957</v>
+        <v>1.687383037581586</v>
       </c>
       <c r="G130">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2016 - (okt 2019 - sep 2021)</t>
+          <t>2016 - (sep 2019 - aug 2021)</t>
         </is>
       </c>
       <c r="J130" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="K130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L130">
         <v>2021</v>
@@ -21152,39 +22225,39 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.9542327407989427</v>
+        <v>0.9630244175934685</v>
       </c>
       <c r="B131">
-        <v>-4.576725920105728</v>
+        <v>-3.697558240653154</v>
       </c>
       <c r="C131">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D131">
-        <v>12.90501544700753</v>
+        <v>11.24254507255552</v>
       </c>
       <c r="E131">
-        <v>6.207555285670694</v>
+        <v>5.698295866412695</v>
       </c>
       <c r="F131">
-        <v>1.727990425479935</v>
+        <v>1.699466766249957</v>
       </c>
       <c r="G131">
-        <v>-8.300000000000001</v>
+        <v>-7.4</v>
       </c>
       <c r="H131">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2016 - (nov 2019 - okt 2021)</t>
+          <t>2016 - (okt 2019 - sep 2021)</t>
         </is>
       </c>
       <c r="J131" s="2">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="K131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L131">
         <v>2021</v>
@@ -21197,39 +22270,39 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.9560463455783356</v>
+        <v>0.9542327407989427</v>
       </c>
       <c r="B132">
-        <v>-4.395365442166444</v>
+        <v>-4.576725920105728</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132">
-        <v>12.14825895681074</v>
+        <v>12.90501544700753</v>
       </c>
       <c r="E132">
-        <v>6.389176298225613</v>
+        <v>6.207555285670694</v>
       </c>
       <c r="F132">
-        <v>1.833107150258428</v>
+        <v>1.727990425479935</v>
       </c>
       <c r="G132">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H132">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2016 - (des 2019 - nov 2021)</t>
+          <t>2016 - (nov 2019 - okt 2021)</t>
         </is>
       </c>
       <c r="J132" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="K132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L132">
         <v>2021</v>
@@ -21242,39 +22315,39 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.9555873640105874</v>
+        <v>0.9560463455783356</v>
       </c>
       <c r="B133">
-        <v>-4.441263598941259</v>
+        <v>-4.395365442166444</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133">
-        <v>12.60570917825133</v>
+        <v>12.14825895681074</v>
       </c>
       <c r="E133">
-        <v>6.368300433747702</v>
+        <v>6.389176298225613</v>
       </c>
       <c r="F133">
-        <v>1.79365908646214</v>
+        <v>1.833107150258428</v>
       </c>
       <c r="G133">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="H133">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2016 - (jan 2020 - des 2021)</t>
+          <t>2016 - (des 2019 - nov 2021)</t>
         </is>
       </c>
       <c r="J133" s="2">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="K133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L133">
         <v>2021</v>
@@ -21287,10 +22360,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.9518771175022926</v>
+        <v>0.9555873640105874</v>
       </c>
       <c r="B134">
-        <v>-4.812288249770735</v>
+        <v>-4.441263598941259</v>
       </c>
       <c r="C134">
         <v>15</v>
@@ -21299,30 +22372,30 @@
         <v>12.60570917825133</v>
       </c>
       <c r="E134">
-        <v>6.356694128134698</v>
+        <v>6.368300433747702</v>
       </c>
       <c r="F134">
-        <v>1.790390120787609</v>
+        <v>1.79365908646214</v>
       </c>
       <c r="G134">
-        <v>-8.699999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H134">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2016 - (feb 2020 - jan 2022)</t>
+          <t>2016 - (jan 2020 - des 2021)</t>
         </is>
       </c>
       <c r="J134" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L134">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -21332,10 +22405,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.9500020933745393</v>
+        <v>0.9518771175022926</v>
       </c>
       <c r="B135">
-        <v>-4.999790662546067</v>
+        <v>-4.812288249770735</v>
       </c>
       <c r="C135">
         <v>15</v>
@@ -21344,27 +22417,27 @@
         <v>12.60570917825133</v>
       </c>
       <c r="E135">
-        <v>6.343566414994324</v>
+        <v>6.356694128134698</v>
       </c>
       <c r="F135">
-        <v>1.786692644168271</v>
+        <v>1.790390120787609</v>
       </c>
       <c r="G135">
-        <v>-8.800000000000001</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="H135">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2016 - (mar 2020 - feb 2022)</t>
+          <t>2016 - (feb 2020 - jan 2022)</t>
         </is>
       </c>
       <c r="J135" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135">
         <v>2022</v>
@@ -21377,10 +22450,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.9594237699964089</v>
+        <v>0.9500020933745393</v>
       </c>
       <c r="B136">
-        <v>-4.057623000359111</v>
+        <v>-4.999790662546067</v>
       </c>
       <c r="C136">
         <v>15</v>
@@ -21389,27 +22462,27 @@
         <v>12.60570917825133</v>
       </c>
       <c r="E136">
-        <v>6.371734649360078</v>
+        <v>6.343566414994324</v>
       </c>
       <c r="F136">
-        <v>1.794626347994803</v>
+        <v>1.786692644168271</v>
       </c>
       <c r="G136">
-        <v>-7.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H136">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2016 - (apr 2020 - mar 2022)</t>
+          <t>2016 - (mar 2020 - feb 2022)</t>
         </is>
       </c>
       <c r="J136" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L136">
         <v>2022</v>
@@ -21422,39 +22495,39 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.9691556043241879</v>
+        <v>0.9594237699964089</v>
       </c>
       <c r="B137">
-        <v>-3.08443956758121</v>
+        <v>-4.057623000359111</v>
       </c>
       <c r="C137">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>13.20094965610274</v>
+        <v>12.60570917825133</v>
       </c>
       <c r="E137">
-        <v>6.353425638779598</v>
+        <v>6.371734649360078</v>
       </c>
       <c r="F137">
-        <v>1.748659951826948</v>
+        <v>1.794626347994803</v>
       </c>
       <c r="G137">
-        <v>-6.8</v>
+        <v>-7.9</v>
       </c>
       <c r="H137">
-        <v>0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2016 - (mai 2020 - apr 2022)</t>
+          <t>2016 - (apr 2020 - mar 2022)</t>
         </is>
       </c>
       <c r="J137" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="K137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L137">
         <v>2022</v>
@@ -21467,10 +22540,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.9745170530704881</v>
+        <v>0.9691556043241879</v>
       </c>
       <c r="B138">
-        <v>-2.548294692951192</v>
+        <v>-3.08443956758121</v>
       </c>
       <c r="C138">
         <v>16</v>
@@ -21479,27 +22552,27 @@
         <v>13.20094965610274</v>
       </c>
       <c r="E138">
-        <v>6.379401890437918</v>
+        <v>6.353425638779598</v>
       </c>
       <c r="F138">
-        <v>1.755809422609486</v>
+        <v>1.748659951826948</v>
       </c>
       <c r="G138">
-        <v>-6.3</v>
+        <v>-6.8</v>
       </c>
       <c r="H138">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2016 - (jun 2020 - mai 2022)</t>
+          <t>2016 - (mai 2020 - apr 2022)</t>
         </is>
       </c>
       <c r="J138" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="K138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L138">
         <v>2022</v>
@@ -21512,39 +22585,39 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.9742601049385989</v>
+        <v>0.9745170530704881</v>
       </c>
       <c r="B139">
-        <v>-2.573989506140106</v>
+        <v>-2.548294692951192</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D139">
-        <v>12.71925601299939</v>
+        <v>13.20094965610274</v>
       </c>
       <c r="E139">
-        <v>6.382606394996079</v>
+        <v>6.379401890437918</v>
       </c>
       <c r="F139">
-        <v>1.789646306985404</v>
+        <v>1.755809422609486</v>
       </c>
       <c r="G139">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="H139">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2016 - (jul 2020 - jun 2022)</t>
+          <t>2016 - (jun 2020 - mai 2022)</t>
         </is>
       </c>
       <c r="J139" s="2">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="K139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L139">
         <v>2022</v>
@@ -21557,39 +22630,39 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.9697788687546673</v>
+        <v>0.9742601049385989</v>
       </c>
       <c r="B140">
-        <v>-3.022113124533266</v>
+        <v>-2.573989506140106</v>
       </c>
       <c r="C140">
         <v>15</v>
       </c>
       <c r="D140">
-        <v>13.05101615397037</v>
+        <v>12.71925601299939</v>
       </c>
       <c r="E140">
-        <v>6.318629035030582</v>
+        <v>6.382606394996079</v>
       </c>
       <c r="F140">
-        <v>1.74904383972907</v>
+        <v>1.789646306985404</v>
       </c>
       <c r="G140">
-        <v>-6.8</v>
+        <v>-6.4</v>
       </c>
       <c r="H140">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2016 - (aug 2020 - jul 2022)</t>
+          <t>2016 - (jul 2020 - jun 2022)</t>
         </is>
       </c>
       <c r="J140" s="2">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="K140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L140">
         <v>2022</v>
@@ -21602,39 +22675,39 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.9763621826073446</v>
+        <v>0.9697788687546673</v>
       </c>
       <c r="B141">
-        <v>-2.363781739265536</v>
+        <v>-3.022113124533266</v>
       </c>
       <c r="C141">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>13.32469276653172</v>
+        <v>13.05101615397037</v>
       </c>
       <c r="E141">
-        <v>6.039244775472425</v>
+        <v>6.318629035030582</v>
       </c>
       <c r="F141">
-        <v>1.654451461228033</v>
+        <v>1.74904383972907</v>
       </c>
       <c r="G141">
-        <v>-5.9</v>
+        <v>-6.8</v>
       </c>
       <c r="H141">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2016 - (sep 2020 - aug 2022)</t>
+          <t>2016 - (aug 2020 - jul 2022)</t>
         </is>
       </c>
       <c r="J141" s="2">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="K141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L141">
         <v>2022</v>
@@ -21647,39 +22720,39 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.9791187375434129</v>
+        <v>0.9763621826073446</v>
       </c>
       <c r="B142">
-        <v>-2.088126245658706</v>
+        <v>-2.363781739265536</v>
       </c>
       <c r="C142">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>14.18563586190661</v>
+        <v>13.32469276653172</v>
       </c>
       <c r="E142">
-        <v>5.805452595823106</v>
+        <v>6.039244775472425</v>
       </c>
       <c r="F142">
-        <v>1.54138695594414</v>
+        <v>1.654451461228033</v>
       </c>
       <c r="G142">
-        <v>-5.4</v>
+        <v>-5.9</v>
       </c>
       <c r="H142">
         <v>1.2</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2016 - (okt 2020 - sep 2022)</t>
+          <t>2016 - (sep 2020 - aug 2022)</t>
         </is>
       </c>
       <c r="J142" s="2">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L142">
         <v>2022</v>
@@ -21692,39 +22765,39 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.9744075614156551</v>
+        <v>0.9791187375434129</v>
       </c>
       <c r="B143">
-        <v>-2.55924385843449</v>
+        <v>-2.088126245658706</v>
       </c>
       <c r="C143">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D143">
-        <v>13.21077900609394</v>
+        <v>14.18563586190661</v>
       </c>
       <c r="E143">
-        <v>5.802055008960919</v>
+        <v>5.805452595823106</v>
       </c>
       <c r="F143">
-        <v>1.596311447959793</v>
+        <v>1.54138695594414</v>
       </c>
       <c r="G143">
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="H143">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2016 - (nov 2020 - okt 2022)</t>
+          <t>2016 - (okt 2020 - sep 2022)</t>
         </is>
       </c>
       <c r="J143" s="2">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="K143">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L143">
         <v>2022</v>
@@ -21737,10 +22810,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.9789849491253279</v>
+        <v>0.9744075614156551</v>
       </c>
       <c r="B144">
-        <v>-2.101505087467215</v>
+        <v>-2.55924385843449</v>
       </c>
       <c r="C144">
         <v>16</v>
@@ -21749,27 +22822,27 @@
         <v>13.21077900609394</v>
       </c>
       <c r="E144">
-        <v>5.729972013464215</v>
+        <v>5.802055008960919</v>
       </c>
       <c r="F144">
-        <v>1.576479352135657</v>
+        <v>1.596311447959793</v>
       </c>
       <c r="G144">
-        <v>-5.5</v>
+        <v>-6</v>
       </c>
       <c r="H144">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2016 - (des 2020 - nov 2022)</t>
+          <t>2016 - (nov 2020 - okt 2022)</t>
         </is>
       </c>
       <c r="J144" s="2">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="K144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L144">
         <v>2022</v>
@@ -21782,10 +22855,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.9818952466988452</v>
+        <v>0.9789849491253279</v>
       </c>
       <c r="B145">
-        <v>-1.81047533011548</v>
+        <v>-2.101505087467215</v>
       </c>
       <c r="C145">
         <v>16</v>
@@ -21794,27 +22867,27 @@
         <v>13.21077900609394</v>
       </c>
       <c r="E145">
-        <v>5.756692557171799</v>
+        <v>5.729972013464215</v>
       </c>
       <c r="F145">
-        <v>1.583830938728726</v>
+        <v>1.576479352135657</v>
       </c>
       <c r="G145">
-        <v>-5.2</v>
+        <v>-5.5</v>
       </c>
       <c r="H145">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2016 - (jan 2021 - des 2022)</t>
+          <t>2016 - (des 2020 - nov 2022)</t>
         </is>
       </c>
       <c r="J145" s="2">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="K145">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L145">
         <v>2022</v>
@@ -21827,10 +22900,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.9867922996239223</v>
+        <v>0.9818952466988452</v>
       </c>
       <c r="B146">
-        <v>-1.320770037607766</v>
+        <v>-1.81047533011548</v>
       </c>
       <c r="C146">
         <v>16</v>
@@ -21839,30 +22912,30 @@
         <v>13.21077900609394</v>
       </c>
       <c r="E146">
-        <v>5.783369910429541</v>
+        <v>5.756692557171799</v>
       </c>
       <c r="F146">
-        <v>1.591170642392485</v>
+        <v>1.583830938728726</v>
       </c>
       <c r="G146">
-        <v>-4.7</v>
+        <v>-5.2</v>
       </c>
       <c r="H146">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2016 - (feb 2021 - jan 2023)</t>
+          <t>2016 - (jan 2021 - des 2022)</t>
         </is>
       </c>
       <c r="J146" s="2">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L146">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -21872,39 +22945,39 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.9889874954456248</v>
+        <v>0.9867922996239223</v>
       </c>
       <c r="B147">
-        <v>-1.101250455437519</v>
+        <v>-1.320770037607766</v>
       </c>
       <c r="C147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D147">
-        <v>12.74832010446923</v>
+        <v>13.21077900609394</v>
       </c>
       <c r="E147">
-        <v>5.868123127296222</v>
+        <v>5.783369910429541</v>
       </c>
       <c r="F147">
-        <v>1.64351146439119</v>
+        <v>1.591170642392485</v>
       </c>
       <c r="G147">
-        <v>-4.6</v>
+        <v>-4.7</v>
       </c>
       <c r="H147">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2016 - (mar 2021 - feb 2023)</t>
+          <t>2016 - (feb 2021 - jan 2023)</t>
         </is>
       </c>
       <c r="J147" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L147">
         <v>2023</v>
@@ -21917,10 +22990,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.994379588716801</v>
+        <v>0.9889874954456248</v>
       </c>
       <c r="B148">
-        <v>-0.5620411283199012</v>
+        <v>-1.101250455437519</v>
       </c>
       <c r="C148">
         <v>15</v>
@@ -21929,27 +23002,27 @@
         <v>12.74832010446923</v>
       </c>
       <c r="E148">
-        <v>5.873904522225</v>
+        <v>5.868123127296222</v>
       </c>
       <c r="F148">
-        <v>1.645130685501501</v>
+        <v>1.64351146439119</v>
       </c>
       <c r="G148">
-        <v>-4.1</v>
+        <v>-4.6</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2016 - (apr 2021 - mar 2023)</t>
+          <t>2016 - (mar 2021 - feb 2023)</t>
         </is>
       </c>
       <c r="J148" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L148">
         <v>2023</v>
@@ -21962,39 +23035,39 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1.000643380942686</v>
+        <v>0.994379588716801</v>
       </c>
       <c r="B149">
-        <v>0.06433809426857895</v>
+        <v>-0.5620411283199012</v>
       </c>
       <c r="C149">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149">
-        <v>13.74132189316117</v>
+        <v>12.74832010446923</v>
       </c>
       <c r="E149">
-        <v>5.722431614532261</v>
+        <v>5.873904522225</v>
       </c>
       <c r="F149">
-        <v>1.543712265330434</v>
+        <v>1.645130685501501</v>
       </c>
       <c r="G149">
-        <v>-3.2</v>
+        <v>-4.1</v>
       </c>
       <c r="H149">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2016 - (mai 2021 - apr 2023)</t>
+          <t>2016 - (apr 2021 - mar 2023)</t>
         </is>
       </c>
       <c r="J149" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L149">
         <v>2023</v>
@@ -22007,10 +23080,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>1.003886502321068</v>
+        <v>1.000643380942686</v>
       </c>
       <c r="B150">
-        <v>0.3886502321067686</v>
+        <v>0.06433809426857895</v>
       </c>
       <c r="C150">
         <v>16</v>
@@ -22019,27 +23092,27 @@
         <v>13.74132189316117</v>
       </c>
       <c r="E150">
-        <v>5.733917876666728</v>
+        <v>5.722431614532261</v>
       </c>
       <c r="F150">
-        <v>1.546810857840434</v>
+        <v>1.543712265330434</v>
       </c>
       <c r="G150">
-        <v>-2.9</v>
+        <v>-3.2</v>
       </c>
       <c r="H150">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2016 - (jun 2021 - mai 2023)</t>
+          <t>2016 - (mai 2021 - apr 2023)</t>
         </is>
       </c>
       <c r="J150" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="K150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L150">
         <v>2023</v>
@@ -22052,10 +23125,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.004955939046993</v>
+        <v>1.003886502321068</v>
       </c>
       <c r="B151">
-        <v>0.4955939046993318</v>
+        <v>0.3886502321067686</v>
       </c>
       <c r="C151">
         <v>16</v>
@@ -22064,27 +23137,27 @@
         <v>13.74132189316117</v>
       </c>
       <c r="E151">
-        <v>5.761133211193546</v>
+        <v>5.733917876666728</v>
       </c>
       <c r="F151">
-        <v>1.55415260494099</v>
+        <v>1.546810857840434</v>
       </c>
       <c r="G151">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H151">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2016 - (jul 2021 - jun 2023)</t>
+          <t>2016 - (jun 2021 - mai 2023)</t>
         </is>
       </c>
       <c r="J151" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="K151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L151">
         <v>2023</v>
@@ -22097,39 +23170,39 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1.003929873647081</v>
+        <v>1.004955939046993</v>
       </c>
       <c r="B152">
-        <v>0.3929873647080528</v>
+        <v>0.4955939046993318</v>
       </c>
       <c r="C152">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D152">
-        <v>14.14996256563074</v>
+        <v>13.74132189316117</v>
       </c>
       <c r="E152">
-        <v>5.769902023318276</v>
+        <v>5.761133211193546</v>
       </c>
       <c r="F152">
-        <v>1.533877910418355</v>
+        <v>1.55415260494099</v>
       </c>
       <c r="G152">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="H152">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2016 - (aug 2021 - jul 2023)</t>
+          <t>2016 - (jul 2021 - jun 2023)</t>
         </is>
       </c>
       <c r="J152" s="2">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="K152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L152">
         <v>2023</v>
@@ -22142,39 +23215,39 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>1.00460343856783</v>
+        <v>1.003929873647081</v>
       </c>
       <c r="B153">
-        <v>0.4603438567829521</v>
+        <v>0.3929873647080528</v>
       </c>
       <c r="C153">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D153">
-        <v>13.30955259786118</v>
+        <v>14.14996256563074</v>
       </c>
       <c r="E153">
-        <v>5.732863897703499</v>
+        <v>5.769902023318276</v>
       </c>
       <c r="F153">
-        <v>1.571411412810686</v>
+        <v>1.533877910418355</v>
       </c>
       <c r="G153">
         <v>-2.9</v>
       </c>
       <c r="H153">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2016 - (sep 2021 - aug 2023)</t>
+          <t>2016 - (aug 2021 - jul 2023)</t>
         </is>
       </c>
       <c r="J153" s="2">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="K153">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L153">
         <v>2023</v>
@@ -22187,10 +23260,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.004315391624619</v>
+        <v>1.00460343856783</v>
       </c>
       <c r="B154">
-        <v>0.4315391624619025</v>
+        <v>0.4603438567829521</v>
       </c>
       <c r="C154">
         <v>16</v>
@@ -22199,10 +23272,10 @@
         <v>13.30955259786118</v>
       </c>
       <c r="E154">
-        <v>5.704991492193659</v>
+        <v>5.732863897703499</v>
       </c>
       <c r="F154">
-        <v>1.563771423984474</v>
+        <v>1.571411412810686</v>
       </c>
       <c r="G154">
         <v>-2.9</v>
@@ -22212,14 +23285,14 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2016 - (okt 2021 - sep 2023)</t>
+          <t>2016 - (sep 2021 - aug 2023)</t>
         </is>
       </c>
       <c r="J154" s="2">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="K154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L154">
         <v>2023</v>
@@ -22232,39 +23305,39 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>1.005092761969594</v>
+        <v>1.004315391624619</v>
       </c>
       <c r="B155">
-        <v>0.5092761969593518</v>
+        <v>0.4315391624619025</v>
       </c>
       <c r="C155">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D155">
-        <v>12.32403755872077</v>
+        <v>13.30955259786118</v>
       </c>
       <c r="E155">
-        <v>5.876937240267322</v>
+        <v>5.704991492193659</v>
       </c>
       <c r="F155">
-        <v>1.674073594784105</v>
+        <v>1.563771423984474</v>
       </c>
       <c r="G155">
-        <v>-3.1</v>
+        <v>-2.9</v>
       </c>
       <c r="H155">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2016 - (nov 2021 - okt 2023)</t>
+          <t>2016 - (okt 2021 - sep 2023)</t>
         </is>
       </c>
       <c r="J155" s="2">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="K155">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L155">
         <v>2023</v>
@@ -22277,10 +23350,10 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>1.004133727080008</v>
+        <v>1.005092761969594</v>
       </c>
       <c r="B156">
-        <v>0.4133727080008365</v>
+        <v>0.5092761969593518</v>
       </c>
       <c r="C156">
         <v>15</v>
@@ -22289,27 +23362,27 @@
         <v>12.32403755872077</v>
       </c>
       <c r="E156">
-        <v>5.807709550506729</v>
+        <v>5.876937240267322</v>
       </c>
       <c r="F156">
-        <v>1.654353757270433</v>
+        <v>1.674073594784105</v>
       </c>
       <c r="G156">
         <v>-3.1</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2016 - (des 2021 - nov 2023)</t>
+          <t>2016 - (nov 2021 - okt 2023)</t>
         </is>
       </c>
       <c r="J156" s="2">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="K156">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L156">
         <v>2023</v>
@@ -22322,10 +23395,10 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>1.004902608500107</v>
+        <v>1.004133727080008</v>
       </c>
       <c r="B157">
-        <v>0.4902608500106709</v>
+        <v>0.4133727080008365</v>
       </c>
       <c r="C157">
         <v>15</v>
@@ -22334,27 +23407,27 @@
         <v>12.32403755872077</v>
       </c>
       <c r="E157">
-        <v>5.793280118181963</v>
+        <v>5.807709550506729</v>
       </c>
       <c r="F157">
-        <v>1.650243464671577</v>
+        <v>1.654353757270433</v>
       </c>
       <c r="G157">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="H157">
         <v>4</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2016 - (jan 2022 - des 2023)</t>
+          <t>2016 - (des 2021 - nov 2023)</t>
         </is>
       </c>
       <c r="J157" s="2">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="K157">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L157">
         <v>2023</v>
@@ -22367,10 +23440,10 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.00660390735701</v>
+        <v>1.004902608500107</v>
       </c>
       <c r="B158">
-        <v>0.6603907357009664</v>
+        <v>0.4902608500106709</v>
       </c>
       <c r="C158">
         <v>15</v>
@@ -22379,30 +23452,30 @@
         <v>12.32403755872077</v>
       </c>
       <c r="E158">
-        <v>5.793026797493138</v>
+        <v>5.793280118181963</v>
       </c>
       <c r="F158">
-        <v>1.650171305065504</v>
+        <v>1.650243464671577</v>
       </c>
       <c r="G158">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="H158">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2016 - (feb 2022 - jan 2024)</t>
+          <t>2016 - (jan 2022 - des 2023)</t>
         </is>
       </c>
       <c r="J158" s="2">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L158">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -22412,10 +23485,10 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>1.007257043186986</v>
+        <v>1.00660390735701</v>
       </c>
       <c r="B159">
-        <v>0.7257043186985834</v>
+        <v>0.6603907357009664</v>
       </c>
       <c r="C159">
         <v>15</v>
@@ -22424,27 +23497,27 @@
         <v>12.32403755872077</v>
       </c>
       <c r="E159">
-        <v>5.788422588251974</v>
+        <v>5.793026797493138</v>
       </c>
       <c r="F159">
-        <v>1.648859774109774</v>
+        <v>1.650171305065504</v>
       </c>
       <c r="G159">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H159">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2016 - (mar 2022 - feb 2024)</t>
+          <t>2016 - (feb 2022 - jan 2024)</t>
         </is>
       </c>
       <c r="J159" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L159">
         <v>2024</v>
@@ -22457,10 +23530,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>1.004012133716169</v>
+        <v>1.007257043186986</v>
       </c>
       <c r="B160">
-        <v>0.4012133716168931</v>
+        <v>0.7257043186985834</v>
       </c>
       <c r="C160">
         <v>15</v>
@@ -22469,27 +23542,27 @@
         <v>12.32403755872077</v>
       </c>
       <c r="E160">
-        <v>5.778165372621418</v>
+        <v>5.788422588251974</v>
       </c>
       <c r="F160">
-        <v>1.645937957329858</v>
+        <v>1.648859774109774</v>
       </c>
       <c r="G160">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="H160">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2016 - (apr 2022 - mar 2024)</t>
+          <t>2016 - (mar 2022 - feb 2024)</t>
         </is>
       </c>
       <c r="J160" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="K160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L160">
         <v>2024</v>
@@ -22502,10 +23575,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>1.005777959731328</v>
+        <v>1.004012133716169</v>
       </c>
       <c r="B161">
-        <v>0.5777959731328108</v>
+        <v>0.4012133716168931</v>
       </c>
       <c r="C161">
         <v>15</v>
@@ -22514,27 +23587,27 @@
         <v>12.32403755872077</v>
       </c>
       <c r="E161">
-        <v>5.741803825518184</v>
+        <v>5.778165372621418</v>
       </c>
       <c r="F161">
-        <v>1.63558019726158</v>
+        <v>1.645937957329858</v>
       </c>
       <c r="G161">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="H161">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2016 - (mai 2022 - apr 2024)</t>
+          <t>2016 - (apr 2022 - mar 2024)</t>
         </is>
       </c>
       <c r="J161" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="K161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L161">
         <v>2024</v>
@@ -22547,10 +23620,10 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>1.004788072794202</v>
+        <v>1.005777959731328</v>
       </c>
       <c r="B162">
-        <v>0.4788072794201792</v>
+        <v>0.5777959731328108</v>
       </c>
       <c r="C162">
         <v>15</v>
@@ -22559,27 +23632,27 @@
         <v>12.32403755872077</v>
       </c>
       <c r="E162">
-        <v>5.774813913981117</v>
+        <v>5.741803825518184</v>
       </c>
       <c r="F162">
-        <v>1.644983278356039</v>
+        <v>1.63558019726158</v>
       </c>
       <c r="G162">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="H162">
+        <v>4.1</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>2016 - (mai 2022 - apr 2024)</t>
+        </is>
+      </c>
+      <c r="J162" s="2">
+        <v>45383</v>
+      </c>
+      <c r="K162">
         <v>4</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>2016 - (jun 2022 - mai 2024)</t>
-        </is>
-      </c>
-      <c r="J162" s="2">
-        <v>45413</v>
-      </c>
-      <c r="K162">
-        <v>5</v>
       </c>
       <c r="L162">
         <v>2024</v>
@@ -22592,10 +23665,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>1.004844735705046</v>
+        <v>1.004788072794202</v>
       </c>
       <c r="B163">
-        <v>0.4844735705045622</v>
+        <v>0.4788072794201792</v>
       </c>
       <c r="C163">
         <v>15</v>
@@ -22604,27 +23677,27 @@
         <v>12.32403755872077</v>
       </c>
       <c r="E163">
-        <v>5.835667067850057</v>
+        <v>5.774813913981117</v>
       </c>
       <c r="F163">
-        <v>1.66231758939025</v>
+        <v>1.644983278356039</v>
       </c>
       <c r="G163">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="H163">
         <v>4</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2016 - (jul 2022 - jun 2024)</t>
+          <t>2016 - (jun 2022 - mai 2024)</t>
         </is>
       </c>
       <c r="J163" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="K163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L163">
         <v>2024</v>
@@ -22637,39 +23710,39 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>1.005154306466447</v>
+        <v>1.004844735705046</v>
       </c>
       <c r="B164">
-        <v>0.515430646644699</v>
+        <v>0.4844735705045622</v>
       </c>
       <c r="C164">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D164">
-        <v>12.9883080671362</v>
+        <v>12.32403755872077</v>
       </c>
       <c r="E164">
-        <v>5.721023045641205</v>
+        <v>5.835667067850057</v>
       </c>
       <c r="F164">
-        <v>1.587440319193536</v>
+        <v>1.66231758939025</v>
       </c>
       <c r="G164">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="H164">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2016 - (aug 2022 - jul 2024)</t>
+          <t>2016 - (jul 2022 - jun 2024)</t>
         </is>
       </c>
       <c r="J164" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="K164">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L164">
         <v>2024</v>
@@ -22682,39 +23755,39 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>1.006396905215039</v>
+        <v>1.005154306466447</v>
       </c>
       <c r="B165">
-        <v>0.6396905215038995</v>
+        <v>0.515430646644699</v>
       </c>
       <c r="C165">
         <v>16</v>
       </c>
       <c r="D165">
-        <v>13.10767223814515</v>
+        <v>12.9883080671362</v>
       </c>
       <c r="E165">
-        <v>5.789289379634444</v>
+        <v>5.721023045641205</v>
       </c>
       <c r="F165">
-        <v>1.599051576477837</v>
+        <v>1.587440319193536</v>
       </c>
       <c r="G165">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2016 - (sep 2022 - aug 2024)</t>
+          <t>2016 - (aug 2022 - jul 2024)</t>
         </is>
       </c>
       <c r="J165" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="K165">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L165">
         <v>2024</v>
@@ -22727,10 +23800,10 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>1.005928373491479</v>
+        <v>1.006396905215039</v>
       </c>
       <c r="B166">
-        <v>0.5928373491478567</v>
+        <v>0.6396905215038995</v>
       </c>
       <c r="C166">
         <v>16</v>
@@ -22739,10 +23812,10 @@
         <v>13.10767223814515</v>
       </c>
       <c r="E166">
-        <v>5.808340800635207</v>
+        <v>5.789289379634444</v>
       </c>
       <c r="F166">
-        <v>1.604313743004282</v>
+        <v>1.599051576477837</v>
       </c>
       <c r="G166">
         <v>-2.8</v>
@@ -22752,14 +23825,14 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2016 - (okt 2022 - sep 2024)</t>
+          <t>2016 - (sep 2022 - aug 2024)</t>
         </is>
       </c>
       <c r="J166" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="K166">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L166">
         <v>2024</v>
@@ -22772,10 +23845,10 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>1.007225876192379</v>
+        <v>1.005928373491479</v>
       </c>
       <c r="B167">
-        <v>0.7225876192378689</v>
+        <v>0.5928373491478567</v>
       </c>
       <c r="C167">
         <v>16</v>
@@ -22784,27 +23857,27 @@
         <v>13.10767223814515</v>
       </c>
       <c r="E167">
-        <v>5.818897431564716</v>
+        <v>5.808340800635207</v>
       </c>
       <c r="F167">
-        <v>1.607229575366973</v>
+        <v>1.604313743004282</v>
       </c>
       <c r="G167">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="H167">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2016 - (nov 2022 - okt 2024)</t>
+          <t>2016 - (okt 2022 - sep 2024)</t>
         </is>
       </c>
       <c r="J167" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="K167">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L167">
         <v>2024</v>
@@ -22817,10 +23890,10 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.007815864545621</v>
+        <v>1.007225876192379</v>
       </c>
       <c r="B168">
-        <v>0.7815864545620554</v>
+        <v>0.7225876192378689</v>
       </c>
       <c r="C168">
         <v>16</v>
@@ -22829,27 +23902,27 @@
         <v>13.10767223814515</v>
       </c>
       <c r="E168">
-        <v>5.831842912261569</v>
+        <v>5.818897431564716</v>
       </c>
       <c r="F168">
-        <v>1.61080522860507</v>
+        <v>1.607229575366973</v>
       </c>
       <c r="G168">
         <v>-2.7</v>
       </c>
       <c r="H168">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2016 - (des 2022 - nov 2024)</t>
+          <t>2016 - (nov 2022 - okt 2024)</t>
         </is>
       </c>
       <c r="J168" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="K168">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L168">
         <v>2024</v>
@@ -22862,10 +23935,10 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>1.008198118825119</v>
+        <v>1.007815864545621</v>
       </c>
       <c r="B169">
-        <v>0.8198118825119449</v>
+        <v>0.7815864545620554</v>
       </c>
       <c r="C169">
         <v>16</v>
@@ -22874,27 +23947,27 @@
         <v>13.10767223814515</v>
       </c>
       <c r="E169">
-        <v>5.850462038162121</v>
+        <v>5.831842912261569</v>
       </c>
       <c r="F169">
-        <v>1.615947991502473</v>
+        <v>1.61080522860507</v>
       </c>
       <c r="G169">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="H169">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2016 - (jan 2023 - des 2024)</t>
+          <t>2016 - (des 2022 - nov 2024)</t>
         </is>
       </c>
       <c r="J169" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="K169">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L169">
         <v>2024</v>
@@ -22907,42 +23980,42 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>1.005050114238661</v>
+        <v>1.008198118825119</v>
       </c>
       <c r="B170">
-        <v>0.505011423866053</v>
+        <v>0.8198118825119449</v>
       </c>
       <c r="C170">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170">
-        <v>12.10792332941545</v>
+        <v>13.10767223814515</v>
       </c>
       <c r="E170">
-        <v>6.000051615091452</v>
+        <v>5.850462038162121</v>
       </c>
       <c r="F170">
-        <v>1.724329091299205</v>
+        <v>1.615947991502473</v>
       </c>
       <c r="G170">
-        <v>-3.2</v>
+        <v>-2.6</v>
       </c>
       <c r="H170">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2016 - (feb 2023 - jan 2025)</t>
+          <t>2016 - (jan 2023 - des 2024)</t>
         </is>
       </c>
       <c r="J170" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L170">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -22952,10 +24025,10 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>1.004740579637944</v>
+        <v>1.005050114238661</v>
       </c>
       <c r="B171">
-        <v>0.4740579637944498</v>
+        <v>0.505011423866053</v>
       </c>
       <c r="C171">
         <v>15</v>
@@ -22964,10 +24037,10 @@
         <v>12.10792332941545</v>
       </c>
       <c r="E171">
-        <v>6.014508259492342</v>
+        <v>6.000051615091452</v>
       </c>
       <c r="F171">
-        <v>1.728483724309415</v>
+        <v>1.724329091299205</v>
       </c>
       <c r="G171">
         <v>-3.2</v>
@@ -22977,14 +24050,14 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2016 - (mar 2023 - feb 2025)</t>
+          <t>2016 - (feb 2023 - jan 2025)</t>
         </is>
       </c>
       <c r="J171" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L171">
         <v>2025</v>
@@ -22997,10 +24070,10 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.005469146970669</v>
+        <v>1.004740579637944</v>
       </c>
       <c r="B172">
-        <v>0.5469146970669359</v>
+        <v>0.4740579637944498</v>
       </c>
       <c r="C172">
         <v>15</v>
@@ -23009,27 +24082,27 @@
         <v>12.10792332941545</v>
       </c>
       <c r="E172">
-        <v>6.029560536602138</v>
+        <v>6.014508259492342</v>
       </c>
       <c r="F172">
-        <v>1.73280953364836</v>
+        <v>1.728483724309415</v>
       </c>
       <c r="G172">
         <v>-3.2</v>
       </c>
       <c r="H172">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2016 - (apr 2023 - mar 2025)</t>
+          <t>2016 - (mar 2023 - feb 2025)</t>
         </is>
       </c>
       <c r="J172" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L172">
         <v>2025</v>
@@ -23042,10 +24115,10 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>1.00778117657946</v>
+        <v>1.005469146970669</v>
       </c>
       <c r="B173">
-        <v>0.7781176579459759</v>
+        <v>0.5469146970669359</v>
       </c>
       <c r="C173">
         <v>15</v>
@@ -23054,27 +24127,27 @@
         <v>12.10792332941545</v>
       </c>
       <c r="E173">
-        <v>6.016940447364139</v>
+        <v>6.029560536602138</v>
       </c>
       <c r="F173">
-        <v>1.729182700346937</v>
+        <v>1.73280953364836</v>
       </c>
       <c r="G173">
-        <v>-2.9</v>
+        <v>-3.2</v>
       </c>
       <c r="H173">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2016 - (mai 2023 - apr 2025)</t>
+          <t>2016 - (apr 2023 - mar 2025)</t>
         </is>
       </c>
       <c r="J173" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L173">
         <v>2025</v>
@@ -23087,39 +24160,39 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>1.01045864928924</v>
+        <v>1.00778117657946</v>
       </c>
       <c r="B174">
-        <v>1.045864928924001</v>
+        <v>0.7781176579459759</v>
       </c>
       <c r="C174">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D174">
-        <v>11.11899134699596</v>
+        <v>12.10792332941545</v>
       </c>
       <c r="E174">
-        <v>6.32013282133667</v>
+        <v>6.016940447364139</v>
       </c>
       <c r="F174">
-        <v>1.895367847970895</v>
+        <v>1.729182700346937</v>
       </c>
       <c r="G174">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="H174">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2016 - (jun 2023 - mai 2025)</t>
+          <t>2016 - (mai 2023 - apr 2025)</t>
         </is>
       </c>
       <c r="J174" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L174">
         <v>2025</v>
@@ -23132,39 +24205,39 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>1.010046418760274</v>
+        <v>1.01045864928924</v>
       </c>
       <c r="B175">
-        <v>1.004641876027446</v>
+        <v>1.045864928924001</v>
       </c>
       <c r="C175">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D175">
-        <v>12.22147884049881</v>
+        <v>11.11899134699596</v>
       </c>
       <c r="E175">
-        <v>6.090510743094643</v>
+        <v>6.32013282133667</v>
       </c>
       <c r="F175">
-        <v>1.742175225100969</v>
+        <v>1.895367847970895</v>
       </c>
       <c r="G175">
-        <v>-2.7</v>
+        <v>-3</v>
       </c>
       <c r="H175">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2016 - (jul 2023 - jun 2025)</t>
+          <t>2016 - (jun 2023 - mai 2025)</t>
         </is>
       </c>
       <c r="J175" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K175">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L175">
         <v>2025</v>
@@ -23177,10 +24250,10 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>1.011428190366631</v>
+        <v>1.010046418760274</v>
       </c>
       <c r="B176">
-        <v>1.142819036663112</v>
+        <v>1.004641876027446</v>
       </c>
       <c r="C176">
         <v>15</v>
@@ -23189,27 +24262,27 @@
         <v>12.22147884049881</v>
       </c>
       <c r="E176">
-        <v>6.107317923937064</v>
+        <v>6.090510743094643</v>
       </c>
       <c r="F176">
-        <v>1.746982876758206</v>
+        <v>1.742175225100969</v>
       </c>
       <c r="G176">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="H176">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2016 - (aug 2023 - jul 2025)</t>
+          <t>2016 - (jul 2023 - jun 2025)</t>
         </is>
       </c>
       <c r="J176" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K176">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L176">
         <v>2025</v>
@@ -23222,10 +24295,10 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>1.013897730461855</v>
+        <v>1.011428190366631</v>
       </c>
       <c r="B177">
-        <v>1.389773046185505</v>
+        <v>1.142819036663112</v>
       </c>
       <c r="C177">
         <v>15</v>
@@ -23234,27 +24307,27 @@
         <v>12.22147884049881</v>
       </c>
       <c r="E177">
-        <v>6.354362931218945</v>
+        <v>6.107317923937064</v>
       </c>
       <c r="F177">
-        <v>1.817649477528816</v>
+        <v>1.746982876758206</v>
       </c>
       <c r="G177">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="H177">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2016 - (sep 2023 - aug 2025)</t>
+          <t>2016 - (aug 2023 - jul 2025)</t>
         </is>
       </c>
       <c r="J177" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K177">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L177">
         <v>2025</v>
@@ -23267,39 +24340,39 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.013765983797036</v>
+        <v>1.013897730461855</v>
       </c>
       <c r="B178">
-        <v>1.376598379703564</v>
+        <v>1.389773046185505</v>
       </c>
       <c r="C178">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D178">
-        <v>12.75169157436595</v>
+        <v>12.22147884049881</v>
       </c>
       <c r="E178">
-        <v>6.303753380199996</v>
+        <v>6.354362931218945</v>
       </c>
       <c r="F178">
-        <v>1.765286963950738</v>
+        <v>1.817649477528816</v>
       </c>
       <c r="G178">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="H178">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2016 - (okt 2023 - sep 2025)</t>
+          <t>2016 - (sep 2023 - aug 2025)</t>
         </is>
       </c>
       <c r="J178" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K178">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L178">
         <v>2025</v>
@@ -23312,10 +24385,10 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>1.014682921837346</v>
+        <v>1.013765983797036</v>
       </c>
       <c r="B179">
-        <v>1.468292183734632</v>
+        <v>1.376598379703564</v>
       </c>
       <c r="C179">
         <v>16</v>
@@ -23324,27 +24397,27 @@
         <v>12.75169157436595</v>
       </c>
       <c r="E179">
-        <v>6.322698059343411</v>
+        <v>6.303753380199996</v>
       </c>
       <c r="F179">
-        <v>1.770592183414612</v>
+        <v>1.765286963950738</v>
       </c>
       <c r="G179">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="H179">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2016 - (nov 2023 - okt 2025)</t>
+          <t>2016 - (okt 2023 - sep 2025)</t>
         </is>
       </c>
       <c r="J179" s="2">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="K179">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L179">
         <v>2025</v>
@@ -23357,100 +24430,100 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>1.013018927054304</v>
+        <v>1.014682921837346</v>
       </c>
       <c r="B180">
-        <v>1.301892705430441</v>
+        <v>1.468292183734632</v>
       </c>
       <c r="C180">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D180">
-        <v>7.58347622798345</v>
+        <v>12.75169157436595</v>
       </c>
       <c r="E180">
-        <v>2.755389474059024</v>
+        <v>6.322698059343411</v>
       </c>
       <c r="F180">
-        <v>1.000573116775234</v>
+        <v>1.770592183414612</v>
       </c>
       <c r="G180">
-        <v>-1</v>
+        <v>-2.3</v>
       </c>
       <c r="H180">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2016 - (jan 2017 - des 2019)</t>
+          <t>2016 - (nov 2023 - okt 2025)</t>
         </is>
       </c>
       <c r="J180" s="2">
-        <v>43800</v>
+        <v>45931</v>
       </c>
       <c r="K180">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L180">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1.013737638839541</v>
+        <v>1.015045793403311</v>
       </c>
       <c r="B181">
-        <v>1.373763883954116</v>
+        <v>1.504579340331058</v>
       </c>
       <c r="C181">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D181">
-        <v>7.58347622798345</v>
+        <v>12.75169157436595</v>
       </c>
       <c r="E181">
-        <v>2.815050271083411</v>
+        <v>6.368494844196258</v>
       </c>
       <c r="F181">
-        <v>1.022237926846548</v>
+        <v>1.783416997841128</v>
       </c>
       <c r="G181">
-        <v>-1</v>
+        <v>-2.3</v>
       </c>
       <c r="H181">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2016 - (feb 2017 - jan 2020)</t>
+          <t>2016 - (des 2023 - nov 2025)</t>
         </is>
       </c>
       <c r="J181" s="2">
-        <v>43831</v>
+        <v>45962</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L181">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1.0140514391225</v>
+        <v>1.013018927054304</v>
       </c>
       <c r="B182">
-        <v>1.405143912249995</v>
+        <v>1.301892705430441</v>
       </c>
       <c r="C182">
         <v>9</v>
@@ -23459,30 +24532,30 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E182">
-        <v>2.87977390419478</v>
+        <v>2.755389474059024</v>
       </c>
       <c r="F182">
-        <v>1.04574122027238</v>
+        <v>1.000573116775234</v>
       </c>
       <c r="G182">
         <v>-1</v>
       </c>
       <c r="H182">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2016 - (mar 2017 - feb 2020)</t>
+          <t>2016 - (jan 2017 - des 2019)</t>
         </is>
       </c>
       <c r="J182" s="2">
-        <v>43862</v>
+        <v>43800</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L182">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
@@ -23492,10 +24565,10 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>1.007984756278101</v>
+        <v>1.013737638839541</v>
       </c>
       <c r="B183">
-        <v>0.7984756278101468</v>
+        <v>1.373763883954116</v>
       </c>
       <c r="C183">
         <v>9</v>
@@ -23504,27 +24577,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E183">
-        <v>2.943828642341227</v>
+        <v>2.815050271083411</v>
       </c>
       <c r="F183">
-        <v>1.069001615797154</v>
+        <v>1.022237926846548</v>
       </c>
       <c r="G183">
-        <v>-1.7</v>
+        <v>-1</v>
       </c>
       <c r="H183">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2016 - (apr 2017 - mar 2020)</t>
+          <t>2016 - (feb 2017 - jan 2020)</t>
         </is>
       </c>
       <c r="J183" s="2">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="K183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L183">
         <v>2020</v>
@@ -23537,10 +24610,10 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.003836681963274</v>
+        <v>1.0140514391225</v>
       </c>
       <c r="B184">
-        <v>0.3836681963273803</v>
+        <v>1.405143912249995</v>
       </c>
       <c r="C184">
         <v>9</v>
@@ -23549,27 +24622,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E184">
-        <v>3.03276601305548</v>
+        <v>2.87977390419478</v>
       </c>
       <c r="F184">
-        <v>1.10129771878047</v>
+        <v>1.04574122027238</v>
       </c>
       <c r="G184">
-        <v>-2.2</v>
+        <v>-1</v>
       </c>
       <c r="H184">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2016 - (mai 2017 - apr 2020)</t>
+          <t>2016 - (mar 2017 - feb 2020)</t>
         </is>
       </c>
       <c r="J184" s="2">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="K184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L184">
         <v>2020</v>
@@ -23582,10 +24655,10 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>1.001709976880291</v>
+        <v>1.007984756278101</v>
       </c>
       <c r="B185">
-        <v>0.1709976880291286</v>
+        <v>0.7984756278101468</v>
       </c>
       <c r="C185">
         <v>9</v>
@@ -23594,27 +24667,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E185">
-        <v>3.121503214179572</v>
+        <v>2.943828642341227</v>
       </c>
       <c r="F185">
-        <v>1.133521133560322</v>
+        <v>1.069001615797154</v>
       </c>
       <c r="G185">
-        <v>-2.4</v>
+        <v>-1.7</v>
       </c>
       <c r="H185">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2016 - (jun 2017 - mai 2020)</t>
+          <t>2016 - (apr 2017 - mar 2020)</t>
         </is>
       </c>
       <c r="J185" s="2">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="K185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L185">
         <v>2020</v>
@@ -23627,10 +24700,10 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>1.001993856385977</v>
+        <v>1.003836681963274</v>
       </c>
       <c r="B186">
-        <v>0.1993856385976711</v>
+        <v>0.3836681963273803</v>
       </c>
       <c r="C186">
         <v>9</v>
@@ -23639,27 +24712,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E186">
-        <v>3.236891931313128</v>
+        <v>3.03276601305548</v>
       </c>
       <c r="F186">
-        <v>1.175422595923441</v>
+        <v>1.10129771878047</v>
       </c>
       <c r="G186">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="H186">
         <v>2.9</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2016 - (jul 2017 - jun 2020)</t>
+          <t>2016 - (mai 2017 - apr 2020)</t>
         </is>
       </c>
       <c r="J186" s="2">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="K186">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L186">
         <v>2020</v>
@@ -23672,10 +24745,10 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>1.004401865825781</v>
+        <v>1.001709976880291</v>
       </c>
       <c r="B187">
-        <v>0.4401865825781393</v>
+        <v>0.1709976880291286</v>
       </c>
       <c r="C187">
         <v>9</v>
@@ -23684,27 +24757,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E187">
-        <v>3.339421079381001</v>
+        <v>3.121503214179572</v>
       </c>
       <c r="F187">
-        <v>1.212654323128763</v>
+        <v>1.133521133560322</v>
       </c>
       <c r="G187">
         <v>-2.4</v>
       </c>
       <c r="H187">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2016 - (aug 2017 - jul 2020)</t>
+          <t>2016 - (jun 2017 - mai 2020)</t>
         </is>
       </c>
       <c r="J187" s="2">
-        <v>44013</v>
+        <v>43952</v>
       </c>
       <c r="K187">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L187">
         <v>2020</v>
@@ -23717,10 +24790,10 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.004591323206466</v>
+        <v>1.001993856385977</v>
       </c>
       <c r="B188">
-        <v>0.4591323206465603</v>
+        <v>0.1993856385976711</v>
       </c>
       <c r="C188">
         <v>9</v>
@@ -23729,27 +24802,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E188">
-        <v>3.429528688639747</v>
+        <v>3.236891931313128</v>
       </c>
       <c r="F188">
-        <v>1.245375378460506</v>
+        <v>1.175422595923441</v>
       </c>
       <c r="G188">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="H188">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2016 - (sep 2017 - aug 2020)</t>
+          <t>2016 - (jul 2017 - jun 2020)</t>
         </is>
       </c>
       <c r="J188" s="2">
-        <v>44044</v>
+        <v>43983</v>
       </c>
       <c r="K188">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L188">
         <v>2020</v>
@@ -23762,10 +24835,10 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>1.005163006254201</v>
+        <v>1.004401865825781</v>
       </c>
       <c r="B189">
-        <v>0.516300625420052</v>
+        <v>0.4401865825781393</v>
       </c>
       <c r="C189">
         <v>9</v>
@@ -23774,27 +24847,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E189">
-        <v>3.508162888069678</v>
+        <v>3.339421079381001</v>
       </c>
       <c r="F189">
-        <v>1.273930058932892</v>
+        <v>1.212654323128763</v>
       </c>
       <c r="G189">
         <v>-2.4</v>
       </c>
       <c r="H189">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2016 - (okt 2017 - sep 2020)</t>
+          <t>2016 - (aug 2017 - jul 2020)</t>
         </is>
       </c>
       <c r="J189" s="2">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="K189">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L189">
         <v>2020</v>
@@ -23807,10 +24880,10 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>1.005191455517837</v>
+        <v>1.004591323206466</v>
       </c>
       <c r="B190">
-        <v>0.5191455517837174</v>
+        <v>0.4591323206465603</v>
       </c>
       <c r="C190">
         <v>9</v>
@@ -23819,27 +24892,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E190">
-        <v>3.646687675732763</v>
+        <v>3.429528688639747</v>
       </c>
       <c r="F190">
-        <v>1.324232994270197</v>
+        <v>1.245375378460506</v>
       </c>
       <c r="G190">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="H190">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2016 - (nov 2017 - okt 2020)</t>
+          <t>2016 - (sep 2017 - aug 2020)</t>
         </is>
       </c>
       <c r="J190" s="2">
-        <v>44105</v>
+        <v>44044</v>
       </c>
       <c r="K190">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L190">
         <v>2020</v>
@@ -23852,10 +24925,10 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>1.00199643153484</v>
+        <v>1.005163006254201</v>
       </c>
       <c r="B191">
-        <v>0.1996431534840415</v>
+        <v>0.516300625420052</v>
       </c>
       <c r="C191">
         <v>9</v>
@@ -23864,27 +24937,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E191">
-        <v>3.858546660450868</v>
+        <v>3.508162888069678</v>
       </c>
       <c r="F191">
-        <v>1.401166003796418</v>
+        <v>1.273930058932892</v>
       </c>
       <c r="G191">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
       <c r="H191">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2016 - (des 2017 - nov 2020)</t>
+          <t>2016 - (okt 2017 - sep 2020)</t>
         </is>
       </c>
       <c r="J191" s="2">
-        <v>44136</v>
+        <v>44075</v>
       </c>
       <c r="K191">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L191">
         <v>2020</v>
@@ -23897,10 +24970,10 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>1.000191987938226</v>
+        <v>1.005191455517837</v>
       </c>
       <c r="B192">
-        <v>0.01919879382257239</v>
+        <v>0.5191455517837174</v>
       </c>
       <c r="C192">
         <v>9</v>
@@ -23909,27 +24982,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E192">
-        <v>4.01375372256418</v>
+        <v>3.646687675732763</v>
       </c>
       <c r="F192">
-        <v>1.457526825141748</v>
+        <v>1.324232994270197</v>
       </c>
       <c r="G192">
-        <v>-3.3</v>
+        <v>-2.5</v>
       </c>
       <c r="H192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2016 - (jan 2018 - des 2020)</t>
+          <t>2016 - (nov 2017 - okt 2020)</t>
         </is>
       </c>
       <c r="J192" s="2">
-        <v>44166</v>
+        <v>44105</v>
       </c>
       <c r="K192">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L192">
         <v>2020</v>
@@ -23942,10 +25015,10 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.9969038907177277</v>
+        <v>1.00199643153484</v>
       </c>
       <c r="B193">
-        <v>-0.309610928227233</v>
+        <v>0.1996431534840415</v>
       </c>
       <c r="C193">
         <v>9</v>
@@ -23954,30 +25027,30 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E193">
-        <v>4.133686551809174</v>
+        <v>3.858546660450868</v>
       </c>
       <c r="F193">
-        <v>1.501078405014977</v>
+        <v>1.401166003796418</v>
       </c>
       <c r="G193">
-        <v>-3.8</v>
+        <v>-3</v>
       </c>
       <c r="H193">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2016 - (feb 2018 - jan 2021)</t>
+          <t>2016 - (des 2017 - nov 2020)</t>
         </is>
       </c>
       <c r="J193" s="2">
-        <v>44197</v>
+        <v>44136</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L193">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
@@ -23987,10 +25060,10 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.9958260069790771</v>
+        <v>1.000191987938226</v>
       </c>
       <c r="B194">
-        <v>-0.4173993020922917</v>
+        <v>0.01919879382257239</v>
       </c>
       <c r="C194">
         <v>9</v>
@@ -23999,30 +25072,30 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E194">
-        <v>4.240712252315356</v>
+        <v>4.01375372256418</v>
       </c>
       <c r="F194">
-        <v>1.539942979238951</v>
+        <v>1.457526825141748</v>
       </c>
       <c r="G194">
-        <v>-4</v>
+        <v>-3.3</v>
       </c>
       <c r="H194">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2016 - (mar 2018 - feb 2021)</t>
+          <t>2016 - (jan 2018 - des 2020)</t>
         </is>
       </c>
       <c r="J194" s="2">
-        <v>44228</v>
+        <v>44166</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L194">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
@@ -24032,10 +25105,10 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.9933362059063168</v>
+        <v>0.9969038907177277</v>
       </c>
       <c r="B195">
-        <v>-0.6663794093683229</v>
+        <v>-0.309610928227233</v>
       </c>
       <c r="C195">
         <v>9</v>
@@ -24044,27 +25117,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E195">
-        <v>4.332643944521589</v>
+        <v>4.133686551809174</v>
       </c>
       <c r="F195">
-        <v>1.573326419462995</v>
+        <v>1.501078405014977</v>
       </c>
       <c r="G195">
-        <v>-4.3</v>
+        <v>-3.8</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2016 - (apr 2018 - mar 2021)</t>
+          <t>2016 - (feb 2018 - jan 2021)</t>
         </is>
       </c>
       <c r="J195" s="2">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="K195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L195">
         <v>2021</v>
@@ -24077,10 +25150,10 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.9886843834233007</v>
+        <v>0.9958260069790771</v>
       </c>
       <c r="B196">
-        <v>-1.131561657669933</v>
+        <v>-0.4173993020922917</v>
       </c>
       <c r="C196">
         <v>9</v>
@@ -24089,27 +25162,27 @@
         <v>7.58347622798345</v>
       </c>
       <c r="E196">
-        <v>4.40778085134503</v>
+        <v>4.240712252315356</v>
       </c>
       <c r="F196">
-        <v>1.600611117235478</v>
+        <v>1.539942979238951</v>
       </c>
       <c r="G196">
-        <v>-4.8</v>
+        <v>-4</v>
       </c>
       <c r="H196">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2016 - (mai 2018 - apr 2021)</t>
+          <t>2016 - (mar 2018 - feb 2021)</t>
         </is>
       </c>
       <c r="J196" s="2">
-        <v>44287</v>
+        <v>44228</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L196">
         <v>2021</v>
@@ -24122,39 +25195,39 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.983871081934188</v>
+        <v>0.9933362059063168</v>
       </c>
       <c r="B197">
-        <v>-1.612891806581196</v>
+        <v>-0.6663794093683229</v>
       </c>
       <c r="C197">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197">
-        <v>6.827641353854328</v>
+        <v>7.58347622798345</v>
       </c>
       <c r="E197">
-        <v>4.600959671137706</v>
+        <v>4.332643944521589</v>
       </c>
       <c r="F197">
-        <v>1.760812353444172</v>
+        <v>1.573326419462995</v>
       </c>
       <c r="G197">
-        <v>-5.8</v>
+        <v>-4.3</v>
       </c>
       <c r="H197">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2016 - (jun 2018 - mai 2021)</t>
+          <t>2016 - (apr 2018 - mar 2021)</t>
         </is>
       </c>
       <c r="J197" s="2">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="K197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L197">
         <v>2021</v>
@@ -24167,39 +25240,39 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.9836366552699094</v>
+        <v>0.9886843834233007</v>
       </c>
       <c r="B198">
-        <v>-1.63633447300906</v>
+        <v>-1.131561657669933</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198">
-        <v>6.827641353854328</v>
+        <v>7.58347622798345</v>
       </c>
       <c r="E198">
-        <v>4.665078073747779</v>
+        <v>4.40778085134503</v>
       </c>
       <c r="F198">
-        <v>1.785350815736541</v>
+        <v>1.600611117235478</v>
       </c>
       <c r="G198">
-        <v>-5.9</v>
+        <v>-4.8</v>
       </c>
       <c r="H198">
         <v>2.6</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2016 - (jul 2018 - jun 2021)</t>
+          <t>2016 - (mai 2018 - apr 2021)</t>
         </is>
       </c>
       <c r="J198" s="2">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="K198">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L198">
         <v>2021</v>
@@ -24212,10 +25285,10 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.9848274690550105</v>
+        <v>0.983871081934188</v>
       </c>
       <c r="B199">
-        <v>-1.517253094498949</v>
+        <v>-1.612891806581196</v>
       </c>
       <c r="C199">
         <v>8</v>
@@ -24224,27 +25297,27 @@
         <v>6.827641353854328</v>
       </c>
       <c r="E199">
-        <v>4.757967993409387</v>
+        <v>4.600959671137706</v>
       </c>
       <c r="F199">
-        <v>1.820900294484776</v>
+        <v>1.760812353444172</v>
       </c>
       <c r="G199">
         <v>-5.8</v>
       </c>
       <c r="H199">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2016 - (aug 2018 - jul 2021)</t>
+          <t>2016 - (jun 2018 - mai 2021)</t>
         </is>
       </c>
       <c r="J199" s="2">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="K199">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L199">
         <v>2021</v>
@@ -24257,10 +25330,10 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.9843858471066472</v>
+        <v>0.9836366552699094</v>
       </c>
       <c r="B200">
-        <v>-1.561415289335277</v>
+        <v>-1.63633447300906</v>
       </c>
       <c r="C200">
         <v>8</v>
@@ -24269,27 +25342,27 @@
         <v>6.827641353854328</v>
       </c>
       <c r="E200">
-        <v>4.838474439749003</v>
+        <v>4.665078073747779</v>
       </c>
       <c r="F200">
-        <v>1.85171055047027</v>
+        <v>1.785350815736541</v>
       </c>
       <c r="G200">
         <v>-5.9</v>
       </c>
       <c r="H200">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2016 - (sep 2018 - aug 2021)</t>
+          <t>2016 - (jul 2018 - jun 2021)</t>
         </is>
       </c>
       <c r="J200" s="2">
-        <v>44409</v>
+        <v>44348</v>
       </c>
       <c r="K200">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L200">
         <v>2021</v>
@@ -24302,10 +25375,10 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.9853123717960494</v>
+        <v>0.9848274690550105</v>
       </c>
       <c r="B201">
-        <v>-1.468762820395064</v>
+        <v>-1.517253094498949</v>
       </c>
       <c r="C201">
         <v>8</v>
@@ -24314,27 +25387,27 @@
         <v>6.827641353854328</v>
       </c>
       <c r="E201">
-        <v>4.854049084102964</v>
+        <v>4.757967993409387</v>
       </c>
       <c r="F201">
-        <v>1.857671051787199</v>
+        <v>1.820900294484776</v>
       </c>
       <c r="G201">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="H201">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2016 - (okt 2018 - sep 2021)</t>
+          <t>2016 - (aug 2018 - jul 2021)</t>
         </is>
       </c>
       <c r="J201" s="2">
-        <v>44440</v>
+        <v>44378</v>
       </c>
       <c r="K201">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L201">
         <v>2021</v>
@@ -24347,10 +25420,10 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.9855708725790501</v>
+        <v>0.9843858471066472</v>
       </c>
       <c r="B202">
-        <v>-1.442912742094993</v>
+        <v>-1.561415289335277</v>
       </c>
       <c r="C202">
         <v>8</v>
@@ -24359,27 +25432,27 @@
         <v>6.827641353854328</v>
       </c>
       <c r="E202">
-        <v>4.789587674945936</v>
+        <v>4.838474439749003</v>
       </c>
       <c r="F202">
-        <v>1.833001319019024</v>
+        <v>1.85171055047027</v>
       </c>
       <c r="G202">
-        <v>-5.8</v>
+        <v>-5.9</v>
       </c>
       <c r="H202">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2016 - (nov 2018 - okt 2021)</t>
+          <t>2016 - (sep 2018 - aug 2021)</t>
         </is>
       </c>
       <c r="J202" s="2">
-        <v>44470</v>
+        <v>44409</v>
       </c>
       <c r="K202">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L202">
         <v>2021</v>
@@ -24392,39 +25465,39 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.9840925538733469</v>
+        <v>0.9853123717960494</v>
       </c>
       <c r="B203">
-        <v>-1.590744612665307</v>
+        <v>-1.468762820395064</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D203">
-        <v>8.694305768854921</v>
+        <v>6.827641353854328</v>
       </c>
       <c r="E203">
-        <v>4.270284526252987</v>
+        <v>4.854049084102964</v>
       </c>
       <c r="F203">
-        <v>1.448236063245232</v>
+        <v>1.857671051787199</v>
       </c>
       <c r="G203">
-        <v>-4.9</v>
+        <v>-5.9</v>
       </c>
       <c r="H203">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2016 - (des 2018 - nov 2021)</t>
+          <t>2016 - (okt 2018 - sep 2021)</t>
         </is>
       </c>
       <c r="J203" s="2">
-        <v>44501</v>
+        <v>44440</v>
       </c>
       <c r="K203">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L203">
         <v>2021</v>
@@ -24437,39 +25510,39 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.9836021684943711</v>
+        <v>0.9855708725790501</v>
       </c>
       <c r="B204">
-        <v>-1.63978315056289</v>
+        <v>-1.442912742094993</v>
       </c>
       <c r="C204">
+        <v>8</v>
+      </c>
+      <c r="D204">
+        <v>6.827641353854328</v>
+      </c>
+      <c r="E204">
+        <v>4.789587674945936</v>
+      </c>
+      <c r="F204">
+        <v>1.833001319019024</v>
+      </c>
+      <c r="G204">
+        <v>-5.8</v>
+      </c>
+      <c r="H204">
+        <v>2.9</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>2016 - (nov 2018 - okt 2021)</t>
+        </is>
+      </c>
+      <c r="J204" s="2">
+        <v>44470</v>
+      </c>
+      <c r="K204">
         <v>10</v>
-      </c>
-      <c r="D204">
-        <v>8.694305768854921</v>
-      </c>
-      <c r="E204">
-        <v>4.303061962169354</v>
-      </c>
-      <c r="F204">
-        <v>1.459352293197348</v>
-      </c>
-      <c r="G204">
-        <v>-4.9</v>
-      </c>
-      <c r="H204">
-        <v>1.7</v>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>2016 - (jan 2019 - des 2021)</t>
-        </is>
-      </c>
-      <c r="J204" s="2">
-        <v>44531</v>
-      </c>
-      <c r="K204">
-        <v>12</v>
       </c>
       <c r="L204">
         <v>2021</v>
@@ -24482,10 +25555,10 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.9816200234341427</v>
+        <v>0.9840925538733469</v>
       </c>
       <c r="B205">
-        <v>-1.837997656585733</v>
+        <v>-1.590744612665307</v>
       </c>
       <c r="C205">
         <v>10</v>
@@ -24494,30 +25567,30 @@
         <v>8.694305768854921</v>
       </c>
       <c r="E205">
-        <v>4.335895045753045</v>
+        <v>4.270284526252987</v>
       </c>
       <c r="F205">
-        <v>1.470487395652727</v>
+        <v>1.448236063245232</v>
       </c>
       <c r="G205">
-        <v>-5.2</v>
+        <v>-4.9</v>
       </c>
       <c r="H205">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2016 - (feb 2019 - jan 2022)</t>
+          <t>2016 - (des 2018 - nov 2021)</t>
         </is>
       </c>
       <c r="J205" s="2">
-        <v>44562</v>
+        <v>44501</v>
       </c>
       <c r="K205">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L205">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -24527,10 +25600,10 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.9811388886260887</v>
+        <v>0.9836021684943711</v>
       </c>
       <c r="B206">
-        <v>-1.886111137391133</v>
+        <v>-1.63978315056289</v>
       </c>
       <c r="C206">
         <v>10</v>
@@ -24539,30 +25612,30 @@
         <v>8.694305768854921</v>
       </c>
       <c r="E206">
-        <v>4.353902897466368</v>
+        <v>4.303061962169354</v>
       </c>
       <c r="F206">
-        <v>1.476594628112877</v>
+        <v>1.459352293197348</v>
       </c>
       <c r="G206">
-        <v>-5.2</v>
+        <v>-4.9</v>
       </c>
       <c r="H206">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2016 - (mar 2019 - feb 2022)</t>
+          <t>2016 - (jan 2019 - des 2021)</t>
         </is>
       </c>
       <c r="J206" s="2">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L206">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -24572,39 +25645,39 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.9753557315312988</v>
+        <v>0.9816200234341427</v>
       </c>
       <c r="B207">
-        <v>-2.464426846870116</v>
+        <v>-1.837997656585733</v>
       </c>
       <c r="C207">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D207">
-        <v>9.540387932509919</v>
+        <v>8.694305768854921</v>
       </c>
       <c r="E207">
-        <v>5.111092558768022</v>
+        <v>4.335895045753045</v>
       </c>
       <c r="F207">
-        <v>1.654743670781764</v>
+        <v>1.470487395652727</v>
       </c>
       <c r="G207">
-        <v>-6.2</v>
+        <v>-5.2</v>
       </c>
       <c r="H207">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2016 - (apr 2019 - mar 2022)</t>
+          <t>2016 - (feb 2019 - jan 2022)</t>
         </is>
       </c>
       <c r="J207" s="2">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="K207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>2022</v>
@@ -24617,39 +25690,39 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.972476931028227</v>
+        <v>0.9811388886260887</v>
       </c>
       <c r="B208">
-        <v>-2.752306897177303</v>
+        <v>-1.886111137391133</v>
       </c>
       <c r="C208">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D208">
-        <v>10.45777066207442</v>
+        <v>8.694305768854921</v>
       </c>
       <c r="E208">
-        <v>5.125126179574938</v>
+        <v>4.353902897466368</v>
       </c>
       <c r="F208">
-        <v>1.584838472554751</v>
+        <v>1.476594628112877</v>
       </c>
       <c r="G208">
-        <v>-6.2</v>
+        <v>-5.2</v>
       </c>
       <c r="H208">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2016 - (mai 2019 - apr 2022)</t>
+          <t>2016 - (mar 2019 - feb 2022)</t>
         </is>
       </c>
       <c r="J208" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="K208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L208">
         <v>2022</v>
@@ -24662,39 +25735,39 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.9733120445969293</v>
+        <v>0.9753557315312988</v>
       </c>
       <c r="B209">
-        <v>-2.668795540307067</v>
+        <v>-2.464426846870116</v>
       </c>
       <c r="C209">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D209">
-        <v>10.45777066207442</v>
+        <v>9.540387932509919</v>
       </c>
       <c r="E209">
-        <v>5.05874448565095</v>
+        <v>5.111092558768022</v>
       </c>
       <c r="F209">
-        <v>1.564311316984736</v>
+        <v>1.654743670781764</v>
       </c>
       <c r="G209">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="H209">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2016 - (jun 2019 - mai 2022)</t>
+          <t>2016 - (apr 2019 - mar 2022)</t>
         </is>
       </c>
       <c r="J209" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="K209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L209">
         <v>2022</v>
@@ -24707,10 +25780,10 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.9733638729170921</v>
+        <v>0.972476931028227</v>
       </c>
       <c r="B210">
-        <v>-2.663612708290786</v>
+        <v>-2.752306897177303</v>
       </c>
       <c r="C210">
         <v>12</v>
@@ -24719,27 +25792,27 @@
         <v>10.45777066207442</v>
       </c>
       <c r="E210">
-        <v>5.04839990283565</v>
+        <v>5.125126179574938</v>
       </c>
       <c r="F210">
-        <v>1.56111247031174</v>
+        <v>1.584838472554751</v>
       </c>
       <c r="G210">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="H210">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2016 - (jul 2019 - jun 2022)</t>
+          <t>2016 - (mai 2019 - apr 2022)</t>
         </is>
       </c>
       <c r="J210" s="2">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="K210">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L210">
         <v>2022</v>
@@ -24752,39 +25825,39 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.9778058179495203</v>
+        <v>0.9733120445969293</v>
       </c>
       <c r="B211">
-        <v>-2.219418205047974</v>
+        <v>-2.668795540307067</v>
       </c>
       <c r="C211">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D211">
-        <v>11.24254507255552</v>
+        <v>10.45777066207442</v>
       </c>
       <c r="E211">
-        <v>5.40884701388118</v>
+        <v>5.05874448565095</v>
       </c>
       <c r="F211">
-        <v>1.613141184542987</v>
+        <v>1.564311316984736</v>
       </c>
       <c r="G211">
-        <v>-5.7</v>
+        <v>-6.1</v>
       </c>
       <c r="H211">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2016 - (aug 2019 - jul 2022)</t>
+          <t>2016 - (jun 2019 - mai 2022)</t>
         </is>
       </c>
       <c r="J211" s="2">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="K211">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L211">
         <v>2022</v>
@@ -24797,39 +25870,39 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.9781839767928413</v>
+        <v>0.9733638729170921</v>
       </c>
       <c r="B212">
-        <v>-2.18160232071587</v>
+        <v>-2.663612708290786</v>
       </c>
       <c r="C212">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D212">
-        <v>11.24254507255552</v>
+        <v>10.45777066207442</v>
       </c>
       <c r="E212">
-        <v>5.388329493687697</v>
+        <v>5.04839990283565</v>
       </c>
       <c r="F212">
-        <v>1.607022014090605</v>
+        <v>1.56111247031174</v>
       </c>
       <c r="G212">
-        <v>-5.7</v>
+        <v>-6.1</v>
       </c>
       <c r="H212">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2016 - (sep 2019 - aug 2022)</t>
+          <t>2016 - (jul 2019 - jun 2022)</t>
         </is>
       </c>
       <c r="J212" s="2">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="K212">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L212">
         <v>2022</v>
@@ -24842,39 +25915,39 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.9708204861068953</v>
+        <v>0.9778058179495203</v>
       </c>
       <c r="B213">
-        <v>-2.917951389310469</v>
+        <v>-2.219418205047974</v>
       </c>
       <c r="C213">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D213">
-        <v>12.14825895681074</v>
+        <v>11.24254507255552</v>
       </c>
       <c r="E213">
-        <v>6.267591721392161</v>
+        <v>5.40884701388118</v>
       </c>
       <c r="F213">
-        <v>1.798223536667042</v>
+        <v>1.613141184542987</v>
       </c>
       <c r="G213">
-        <v>-6.8</v>
+        <v>-5.7</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2016 - (okt 2019 - sep 2022)</t>
+          <t>2016 - (aug 2019 - jul 2022)</t>
         </is>
       </c>
       <c r="J213" s="2">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="K213">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L213">
         <v>2022</v>
@@ -24887,39 +25960,39 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.9695837429190634</v>
+        <v>0.9781839767928413</v>
       </c>
       <c r="B214">
-        <v>-3.041625708093665</v>
+        <v>-2.18160232071587</v>
       </c>
       <c r="C214">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D214">
-        <v>12.14825895681074</v>
+        <v>11.24254507255552</v>
       </c>
       <c r="E214">
-        <v>6.301815814749751</v>
+        <v>5.388329493687697</v>
       </c>
       <c r="F214">
-        <v>1.808042710112347</v>
+        <v>1.607022014090605</v>
       </c>
       <c r="G214">
-        <v>-6.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H214">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2016 - (nov 2019 - okt 2022)</t>
+          <t>2016 - (sep 2019 - aug 2022)</t>
         </is>
       </c>
       <c r="J214" s="2">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="K214">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L214">
         <v>2022</v>
@@ -24932,39 +26005,39 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.9704658199714445</v>
+        <v>0.9708204861068953</v>
       </c>
       <c r="B215">
-        <v>-2.953418002855546</v>
+        <v>-2.917951389310469</v>
       </c>
       <c r="C215">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D215">
-        <v>12.60570917825133</v>
+        <v>12.14825895681074</v>
       </c>
       <c r="E215">
-        <v>6.274967414449051</v>
+        <v>6.267591721392161</v>
       </c>
       <c r="F215">
-        <v>1.767371441921247</v>
+        <v>1.798223536667042</v>
       </c>
       <c r="G215">
-        <v>-6.7</v>
+        <v>-6.8</v>
       </c>
       <c r="H215">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>2016 - (des 2019 - nov 2022)</t>
+          <t>2016 - (okt 2019 - sep 2022)</t>
         </is>
       </c>
       <c r="J215" s="2">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="K215">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L215">
         <v>2022</v>
@@ -24977,39 +26050,39 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.9703456106541072</v>
+        <v>0.9695837429190634</v>
       </c>
       <c r="B216">
-        <v>-2.965438934589282</v>
+        <v>-3.041625708093665</v>
       </c>
       <c r="C216">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D216">
-        <v>12.60570917825133</v>
+        <v>12.14825895681074</v>
       </c>
       <c r="E216">
-        <v>6.275167843234519</v>
+        <v>6.301815814749751</v>
       </c>
       <c r="F216">
-        <v>1.767427893546917</v>
+        <v>1.808042710112347</v>
       </c>
       <c r="G216">
-        <v>-6.8</v>
+        <v>-6.9</v>
       </c>
       <c r="H216">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2016 - (jan 2020 - des 2022)</t>
+          <t>2016 - (nov 2019 - okt 2022)</t>
         </is>
       </c>
       <c r="J216" s="2">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="K216">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L216">
         <v>2022</v>
@@ -25022,10 +26095,10 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.9690531393719121</v>
+        <v>0.9704658199714445</v>
       </c>
       <c r="B217">
-        <v>-3.094686062808794</v>
+        <v>-2.953418002855546</v>
       </c>
       <c r="C217">
         <v>15</v>
@@ -25034,30 +26107,30 @@
         <v>12.60570917825133</v>
       </c>
       <c r="E217">
-        <v>6.250506182823538</v>
+        <v>6.274967414449051</v>
       </c>
       <c r="F217">
-        <v>1.760481831290026</v>
+        <v>1.767371441921247</v>
       </c>
       <c r="G217">
-        <v>-6.9</v>
+        <v>-6.7</v>
       </c>
       <c r="H217">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2016 - (feb 2020 - jan 2023)</t>
+          <t>2016 - (des 2019 - nov 2022)</t>
         </is>
       </c>
       <c r="J217" s="2">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="K217">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L217">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
@@ -25067,10 +26140,10 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.9685995602688349</v>
+        <v>0.9703456106541072</v>
       </c>
       <c r="B218">
-        <v>-3.140043973116513</v>
+        <v>-2.965438934589282</v>
       </c>
       <c r="C218">
         <v>15</v>
@@ -25079,30 +26152,30 @@
         <v>12.60570917825133</v>
       </c>
       <c r="E218">
-        <v>6.242409880755972</v>
+        <v>6.275167843234519</v>
       </c>
       <c r="F218">
-        <v>1.758201473144032</v>
+        <v>1.767427893546917</v>
       </c>
       <c r="G218">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="H218">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2016 - (mar 2020 - feb 2023)</t>
+          <t>2016 - (jan 2020 - des 2022)</t>
         </is>
       </c>
       <c r="J218" s="2">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L218">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
@@ -25112,39 +26185,39 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.9671068783879863</v>
+        <v>0.9690531393719121</v>
       </c>
       <c r="B219">
-        <v>-3.289312161201374</v>
+        <v>-3.094686062808794</v>
       </c>
       <c r="C219">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D219">
-        <v>11.07589796000691</v>
+        <v>12.60570917825133</v>
       </c>
       <c r="E219">
-        <v>6.178355631950947</v>
+        <v>6.250506182823538</v>
       </c>
       <c r="F219">
-        <v>1.856450740615963</v>
+        <v>1.760481831290026</v>
       </c>
       <c r="G219">
-        <v>-7.3</v>
+        <v>-6.9</v>
       </c>
       <c r="H219">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2016 - (apr 2020 - mar 2023)</t>
+          <t>2016 - (feb 2020 - jan 2023)</t>
         </is>
       </c>
       <c r="J219" s="2">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="K219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L219">
         <v>2023</v>
@@ -25157,39 +26230,39 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.9717111812370582</v>
+        <v>0.9685995602688349</v>
       </c>
       <c r="B220">
-        <v>-2.828881876294176</v>
+        <v>-3.140043973116513</v>
       </c>
       <c r="C220">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D220">
-        <v>11.07589796000691</v>
+        <v>12.60570917825133</v>
       </c>
       <c r="E220">
-        <v>6.232173107425839</v>
+        <v>6.242409880755972</v>
       </c>
       <c r="F220">
-        <v>1.872621627847959</v>
+        <v>1.758201473144032</v>
       </c>
       <c r="G220">
         <v>-6.9</v>
       </c>
       <c r="H220">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2016 - (mai 2020 - apr 2023)</t>
+          <t>2016 - (mar 2020 - feb 2023)</t>
         </is>
       </c>
       <c r="J220" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="K220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L220">
         <v>2023</v>
@@ -25202,10 +26275,10 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.9745231924812277</v>
+        <v>0.9671068783879863</v>
       </c>
       <c r="B221">
-        <v>-2.547680751877235</v>
+        <v>-3.289312161201374</v>
       </c>
       <c r="C221">
         <v>13</v>
@@ -25214,27 +26287,27 @@
         <v>11.07589796000691</v>
       </c>
       <c r="E221">
-        <v>6.323803224326532</v>
+        <v>6.178355631950947</v>
       </c>
       <c r="F221">
-        <v>1.900154325626527</v>
+        <v>1.856450740615963</v>
       </c>
       <c r="G221">
-        <v>-6.7</v>
+        <v>-7.3</v>
       </c>
       <c r="H221">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2016 - (jun 2020 - mai 2023)</t>
+          <t>2016 - (apr 2020 - mar 2023)</t>
         </is>
       </c>
       <c r="J221" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="K221">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L221">
         <v>2023</v>
@@ -25247,10 +26320,10 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.9759931604595012</v>
+        <v>0.9717111812370582</v>
       </c>
       <c r="B222">
-        <v>-2.400683954049876</v>
+        <v>-2.828881876294176</v>
       </c>
       <c r="C222">
         <v>13</v>
@@ -25259,27 +26332,27 @@
         <v>11.07589796000691</v>
       </c>
       <c r="E222">
-        <v>6.426309704652025</v>
+        <v>6.232173107425839</v>
       </c>
       <c r="F222">
-        <v>1.930955115133379</v>
+        <v>1.872621627847959</v>
       </c>
       <c r="G222">
-        <v>-6.6</v>
+        <v>-6.9</v>
       </c>
       <c r="H222">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2016 - (jul 2020 - jun 2023)</t>
+          <t>2016 - (mai 2020 - apr 2023)</t>
         </is>
       </c>
       <c r="J222" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="K222">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L222">
         <v>2023</v>
@@ -25292,10 +26365,10 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.9751421830249899</v>
+        <v>0.9745231924812277</v>
       </c>
       <c r="B223">
-        <v>-2.485781697501011</v>
+        <v>-2.547680751877235</v>
       </c>
       <c r="C223">
         <v>13</v>
@@ -25304,27 +26377,27 @@
         <v>11.07589796000691</v>
       </c>
       <c r="E223">
-        <v>6.45097178405737</v>
+        <v>6.323803224326532</v>
       </c>
       <c r="F223">
-        <v>1.938365490693571</v>
+        <v>1.900154325626527</v>
       </c>
       <c r="G223">
         <v>-6.7</v>
       </c>
       <c r="H223">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>2016 - (aug 2020 - jul 2023)</t>
+          <t>2016 - (jun 2020 - mai 2023)</t>
         </is>
       </c>
       <c r="J223" s="2">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="K223">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L223">
         <v>2023</v>
@@ -25337,10 +26410,10 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.975660340906261</v>
+        <v>0.9759931604595012</v>
       </c>
       <c r="B224">
-        <v>-2.433965909373903</v>
+        <v>-2.400683954049876</v>
       </c>
       <c r="C224">
         <v>13</v>
@@ -25349,10 +26422,10 @@
         <v>11.07589796000691</v>
       </c>
       <c r="E224">
-        <v>6.424034882193977</v>
+        <v>6.426309704652025</v>
       </c>
       <c r="F224">
-        <v>1.930271584419289</v>
+        <v>1.930955115133379</v>
       </c>
       <c r="G224">
         <v>-6.6</v>
@@ -25362,14 +26435,14 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2016 - (sep 2020 - aug 2023)</t>
+          <t>2016 - (jul 2020 - jun 2023)</t>
         </is>
       </c>
       <c r="J224" s="2">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="K224">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L224">
         <v>2023</v>
@@ -25382,39 +26455,39 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.9839373473764429</v>
+        <v>0.9751421830249899</v>
       </c>
       <c r="B225">
-        <v>-1.606265262355711</v>
+        <v>-2.485781697501011</v>
       </c>
       <c r="C225">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225">
-        <v>11.91122288707873</v>
+        <v>11.07589796000691</v>
       </c>
       <c r="E225">
-        <v>5.898141228536334</v>
+        <v>6.45097178405737</v>
       </c>
       <c r="F225">
-        <v>1.70898004483033</v>
+        <v>1.938365490693571</v>
       </c>
       <c r="G225">
-        <v>-5.3</v>
+        <v>-6.7</v>
       </c>
       <c r="H225">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>2016 - (okt 2020 - sep 2023)</t>
+          <t>2016 - (aug 2020 - jul 2023)</t>
         </is>
       </c>
       <c r="J225" s="2">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="K225">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L225">
         <v>2023</v>
@@ -25427,39 +26500,39 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.9857733578953434</v>
+        <v>0.975660340906261</v>
       </c>
       <c r="B226">
-        <v>-1.422664210465663</v>
+        <v>-2.433965909373903</v>
       </c>
       <c r="C226">
         <v>13</v>
       </c>
       <c r="D226">
-        <v>10.92759461260369</v>
+        <v>11.07589796000691</v>
       </c>
       <c r="E226">
-        <v>6.139775348293783</v>
+        <v>6.424034882193977</v>
       </c>
       <c r="F226">
-        <v>1.857334787718595</v>
+        <v>1.930271584419289</v>
       </c>
       <c r="G226">
-        <v>-5.5</v>
+        <v>-6.6</v>
       </c>
       <c r="H226">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2016 - (nov 2020 - okt 2023)</t>
+          <t>2016 - (sep 2020 - aug 2023)</t>
         </is>
       </c>
       <c r="J226" s="2">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="K226">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L226">
         <v>2023</v>
@@ -25472,39 +26545,39 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.9884446045605501</v>
+        <v>0.9839373473764429</v>
       </c>
       <c r="B227">
-        <v>-1.155539543944994</v>
+        <v>-1.606265262355711</v>
       </c>
       <c r="C227">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D227">
-        <v>10.92759461260369</v>
+        <v>11.91122288707873</v>
       </c>
       <c r="E227">
-        <v>6.082325820399721</v>
+        <v>5.898141228536334</v>
       </c>
       <c r="F227">
-        <v>1.839955811999996</v>
+        <v>1.70898004483033</v>
       </c>
       <c r="G227">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
       <c r="H227">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>2016 - (des 2020 - nov 2023)</t>
+          <t>2016 - (okt 2020 - sep 2023)</t>
         </is>
       </c>
       <c r="J227" s="2">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="K227">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L227">
         <v>2023</v>
@@ -25517,10 +26590,10 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.9900777047341341</v>
+        <v>0.9857733578953434</v>
       </c>
       <c r="B228">
-        <v>-0.9922295265865855</v>
+        <v>-1.422664210465663</v>
       </c>
       <c r="C228">
         <v>13</v>
@@ -25529,27 +26602,27 @@
         <v>10.92759461260369</v>
       </c>
       <c r="E228">
-        <v>6.09734020676397</v>
+        <v>6.139775348293783</v>
       </c>
       <c r="F228">
-        <v>1.844497792859005</v>
+        <v>1.857334787718595</v>
       </c>
       <c r="G228">
-        <v>-5</v>
+        <v>-5.5</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2016 - (jan 2021 - des 2023)</t>
+          <t>2016 - (nov 2020 - okt 2023)</t>
         </is>
       </c>
       <c r="J228" s="2">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="K228">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L228">
         <v>2023</v>
@@ -25562,10 +26635,10 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.9932610581582559</v>
+        <v>0.9884446045605501</v>
       </c>
       <c r="B229">
-        <v>-0.6738941841744062</v>
+        <v>-1.155539543944994</v>
       </c>
       <c r="C229">
         <v>13</v>
@@ -25574,30 +26647,30 @@
         <v>10.92759461260369</v>
       </c>
       <c r="E229">
-        <v>6.129170421891731</v>
+        <v>6.082325820399721</v>
       </c>
       <c r="F229">
-        <v>1.85412670637842</v>
+        <v>1.839955811999996</v>
       </c>
       <c r="G229">
-        <v>-4.7</v>
+        <v>-5.2</v>
       </c>
       <c r="H229">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>2016 - (feb 2021 - jan 2024)</t>
+          <t>2016 - (des 2020 - nov 2023)</t>
         </is>
       </c>
       <c r="J229" s="2">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="K229">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L229">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
@@ -25607,10 +26680,10 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.9945424616749151</v>
+        <v>0.9900777047341341</v>
       </c>
       <c r="B230">
-        <v>-0.5457538325084887</v>
+        <v>-0.9922295265865855</v>
       </c>
       <c r="C230">
         <v>13</v>
@@ -25619,30 +26692,30 @@
         <v>10.92759461260369</v>
       </c>
       <c r="E230">
-        <v>6.1534201485881</v>
+        <v>6.09734020676397</v>
       </c>
       <c r="F230">
-        <v>1.861462457025771</v>
+        <v>1.844497792859005</v>
       </c>
       <c r="G230">
-        <v>-4.6</v>
+        <v>-5</v>
       </c>
       <c r="H230">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2016 - (mar 2021 - feb 2024)</t>
+          <t>2016 - (jan 2021 - des 2023)</t>
         </is>
       </c>
       <c r="J230" s="2">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="K230">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L230">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
@@ -25652,39 +26725,39 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.9986348764288965</v>
+        <v>0.9932610581582559</v>
       </c>
       <c r="B231">
-        <v>-0.1365123571103521</v>
+        <v>-0.6738941841744062</v>
       </c>
       <c r="C231">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D231">
-        <v>11.92474513949884</v>
+        <v>10.92759461260369</v>
       </c>
       <c r="E231">
-        <v>5.901359192164617</v>
+        <v>6.129170421891731</v>
       </c>
       <c r="F231">
-        <v>1.708942680250145</v>
+        <v>1.85412670637842</v>
       </c>
       <c r="G231">
-        <v>-3.8</v>
+        <v>-4.7</v>
       </c>
       <c r="H231">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2016 - (apr 2021 - mar 2024)</t>
+          <t>2016 - (feb 2021 - jan 2024)</t>
         </is>
       </c>
       <c r="J231" s="2">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="K231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L231">
         <v>2024</v>
@@ -25697,39 +26770,39 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>1.00308175471837</v>
+        <v>0.9945424616749151</v>
       </c>
       <c r="B232">
-        <v>0.3081754718370133</v>
+        <v>-0.5457538325084887</v>
       </c>
       <c r="C232">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D232">
-        <v>11.92474513949884</v>
+        <v>10.92759461260369</v>
       </c>
       <c r="E232">
-        <v>5.885671164799874</v>
+        <v>6.1534201485881</v>
       </c>
       <c r="F232">
-        <v>1.70439966928275</v>
+        <v>1.861462457025771</v>
       </c>
       <c r="G232">
-        <v>-3.4</v>
+        <v>-4.6</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2016 - (mai 2021 - apr 2024)</t>
+          <t>2016 - (mar 2021 - feb 2024)</t>
         </is>
       </c>
       <c r="J232" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="K232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L232">
         <v>2024</v>
@@ -25742,10 +26815,10 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>1.005479299903012</v>
+        <v>0.9986348764288965</v>
       </c>
       <c r="B233">
-        <v>0.5479299903011547</v>
+        <v>-0.1365123571103521</v>
       </c>
       <c r="C233">
         <v>14</v>
@@ -25754,27 +26827,27 @@
         <v>11.92474513949884</v>
       </c>
       <c r="E233">
-        <v>5.886105669997764</v>
+        <v>5.901359192164617</v>
       </c>
       <c r="F233">
-        <v>1.704525495292197</v>
+        <v>1.708942680250145</v>
       </c>
       <c r="G233">
-        <v>-3.1</v>
+        <v>-3.8</v>
       </c>
       <c r="H233">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>2016 - (jun 2021 - mai 2024)</t>
+          <t>2016 - (apr 2021 - mar 2024)</t>
         </is>
       </c>
       <c r="J233" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="K233">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L233">
         <v>2024</v>
@@ -25787,10 +26860,10 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>1.005150055290884</v>
+        <v>1.00308175471837</v>
       </c>
       <c r="B234">
-        <v>0.5150055290884303</v>
+        <v>0.3081754718370133</v>
       </c>
       <c r="C234">
         <v>14</v>
@@ -25799,27 +26872,27 @@
         <v>11.92474513949884</v>
       </c>
       <c r="E234">
-        <v>5.883102025293311</v>
+        <v>5.885671164799874</v>
       </c>
       <c r="F234">
-        <v>1.703655686072897</v>
+        <v>1.70439966928275</v>
       </c>
       <c r="G234">
-        <v>-3.2</v>
+        <v>-3.4</v>
       </c>
       <c r="H234">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2016 - (jul 2021 - jun 2024)</t>
+          <t>2016 - (mai 2021 - apr 2024)</t>
         </is>
       </c>
       <c r="J234" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="K234">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L234">
         <v>2024</v>
@@ -25832,39 +26905,39 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>1.001762879382162</v>
+        <v>1.005479299903012</v>
       </c>
       <c r="B235">
-        <v>0.1762879382162019</v>
+        <v>0.5479299903011547</v>
       </c>
       <c r="C235">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D235">
-        <v>11.36263447543197</v>
+        <v>11.92474513949884</v>
       </c>
       <c r="E235">
-        <v>6.313229684825742</v>
+        <v>5.886105669997764</v>
       </c>
       <c r="F235">
-        <v>1.872889142035314</v>
+        <v>1.704525495292197</v>
       </c>
       <c r="G235">
-        <v>-3.9</v>
+        <v>-3.1</v>
       </c>
       <c r="H235">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2016 - (aug 2021 - jul 2024)</t>
+          <t>2016 - (jun 2021 - mai 2024)</t>
         </is>
       </c>
       <c r="J235" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="K235">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L235">
         <v>2024</v>
@@ -25877,39 +26950,39 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>1.002603915703018</v>
+        <v>1.005150055290884</v>
       </c>
       <c r="B236">
-        <v>0.2603915703017545</v>
+        <v>0.5150055290884303</v>
       </c>
       <c r="C236">
         <v>14</v>
       </c>
       <c r="D236">
-        <v>11.79634308486062</v>
+        <v>11.92474513949884</v>
       </c>
       <c r="E236">
-        <v>6.21293688869587</v>
+        <v>5.883102025293311</v>
       </c>
       <c r="F236">
-        <v>1.808936177768558</v>
+        <v>1.703655686072897</v>
       </c>
       <c r="G236">
-        <v>-3.6</v>
+        <v>-3.2</v>
       </c>
       <c r="H236">
         <v>4.2</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2016 - (sep 2021 - aug 2024)</t>
+          <t>2016 - (jul 2021 - jun 2024)</t>
         </is>
       </c>
       <c r="J236" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="K236">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L236">
         <v>2024</v>
@@ -25922,39 +26995,39 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>1.002461848970429</v>
+        <v>1.001762879382162</v>
       </c>
       <c r="B237">
-        <v>0.2461848970428893</v>
+        <v>0.1762879382162019</v>
       </c>
       <c r="C237">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D237">
-        <v>11.79634308486062</v>
+        <v>11.36263447543197</v>
       </c>
       <c r="E237">
-        <v>6.209930840762039</v>
+        <v>6.313229684825742</v>
       </c>
       <c r="F237">
-        <v>1.808060947751413</v>
+        <v>1.872889142035314</v>
       </c>
       <c r="G237">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="H237">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2016 - (okt 2021 - sep 2024)</t>
+          <t>2016 - (aug 2021 - jul 2024)</t>
         </is>
       </c>
       <c r="J237" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="K237">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L237">
         <v>2024</v>
@@ -25967,10 +27040,10 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.002266613529449</v>
+        <v>1.002603915703018</v>
       </c>
       <c r="B238">
-        <v>0.2266613529448902</v>
+        <v>0.2603915703017545</v>
       </c>
       <c r="C238">
         <v>14</v>
@@ -25979,27 +27052,27 @@
         <v>11.79634308486062</v>
       </c>
       <c r="E238">
-        <v>6.209181517789988</v>
+        <v>6.21293688869587</v>
       </c>
       <c r="F238">
-        <v>1.807842777591751</v>
+        <v>1.808936177768558</v>
       </c>
       <c r="G238">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="H238">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2016 - (nov 2021 - okt 2024)</t>
+          <t>2016 - (sep 2021 - aug 2024)</t>
         </is>
       </c>
       <c r="J238" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="K238">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L238">
         <v>2024</v>
@@ -26012,10 +27085,10 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>1.001984701284771</v>
+        <v>1.002461848970429</v>
       </c>
       <c r="B239">
-        <v>0.1984701284770685</v>
+        <v>0.2461848970428893</v>
       </c>
       <c r="C239">
         <v>14</v>
@@ -26024,27 +27097,27 @@
         <v>11.79634308486062</v>
       </c>
       <c r="E239">
-        <v>6.175889531944939</v>
+        <v>6.209930840762039</v>
       </c>
       <c r="F239">
-        <v>1.798149603702533</v>
+        <v>1.808060947751413</v>
       </c>
       <c r="G239">
         <v>-3.7</v>
       </c>
       <c r="H239">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>2016 - (des 2021 - nov 2024)</t>
+          <t>2016 - (okt 2021 - sep 2024)</t>
         </is>
       </c>
       <c r="J239" s="2">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="K239">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L239">
         <v>2024</v>
@@ -26057,10 +27130,10 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>1.00294719267856</v>
+        <v>1.002266613529449</v>
       </c>
       <c r="B240">
-        <v>0.2947192678560251</v>
+        <v>0.2266613529448902</v>
       </c>
       <c r="C240">
         <v>14</v>
@@ -26069,27 +27142,27 @@
         <v>11.79634308486062</v>
       </c>
       <c r="E240">
-        <v>6.176126022149319</v>
+        <v>6.209181517789988</v>
       </c>
       <c r="F240">
-        <v>1.798218459332978</v>
+        <v>1.807842777591751</v>
       </c>
       <c r="G240">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="H240">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2016 - (jan 2022 - des 2024)</t>
+          <t>2016 - (nov 2021 - okt 2024)</t>
         </is>
       </c>
       <c r="J240" s="2">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="K240">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L240">
         <v>2024</v>
@@ -26102,10 +27175,10 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>1.00429520641244</v>
+        <v>1.001984701284771</v>
       </c>
       <c r="B241">
-        <v>0.4295206412439967</v>
+        <v>0.1984701284770685</v>
       </c>
       <c r="C241">
         <v>14</v>
@@ -26114,30 +27187,30 @@
         <v>11.79634308486062</v>
       </c>
       <c r="E241">
-        <v>6.183041980275701</v>
+        <v>6.175889531944939</v>
       </c>
       <c r="F241">
-        <v>1.800232084625311</v>
+        <v>1.798149603702533</v>
       </c>
       <c r="G241">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="H241">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2016 - (feb 2022 - jan 2025)</t>
+          <t>2016 - (des 2021 - nov 2024)</t>
         </is>
       </c>
       <c r="J241" s="2">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="K241">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L241">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
@@ -26147,10 +27220,10 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>1.005073364621558</v>
+        <v>1.00294719267856</v>
       </c>
       <c r="B242">
-        <v>0.5073364621557941</v>
+        <v>0.2947192678560251</v>
       </c>
       <c r="C242">
         <v>14</v>
@@ -26159,30 +27232,30 @@
         <v>11.79634308486062</v>
       </c>
       <c r="E242">
-        <v>6.199438269404783</v>
+        <v>6.176126022149319</v>
       </c>
       <c r="F242">
-        <v>1.805005968718793</v>
+        <v>1.798218459332978</v>
       </c>
       <c r="G242">
-        <v>-3.4</v>
+        <v>-3.6</v>
       </c>
       <c r="H242">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2016 - (mar 2022 - feb 2025)</t>
+          <t>2016 - (jan 2022 - des 2024)</t>
         </is>
       </c>
       <c r="J242" s="2">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="K242">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L242">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
@@ -26192,10 +27265,10 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>1.005104293008248</v>
+        <v>1.00429520641244</v>
       </c>
       <c r="B243">
-        <v>0.5104293008247662</v>
+        <v>0.4295206412439967</v>
       </c>
       <c r="C243">
         <v>14</v>
@@ -26204,27 +27277,27 @@
         <v>11.79634308486062</v>
       </c>
       <c r="E243">
-        <v>6.207783490674507</v>
+        <v>6.183041980275701</v>
       </c>
       <c r="F243">
-        <v>1.807435733085747</v>
+        <v>1.800232084625311</v>
       </c>
       <c r="G243">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="H243">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2016 - (apr 2022 - mar 2025)</t>
+          <t>2016 - (feb 2022 - jan 2025)</t>
         </is>
       </c>
       <c r="J243" s="2">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="K243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L243">
         <v>2025</v>
@@ -26237,10 +27310,10 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>1.005635951975447</v>
+        <v>1.005073364621558</v>
       </c>
       <c r="B244">
-        <v>0.5635951975446973</v>
+        <v>0.5073364621557941</v>
       </c>
       <c r="C244">
         <v>14</v>
@@ -26249,27 +27322,27 @@
         <v>11.79634308486062</v>
       </c>
       <c r="E244">
-        <v>6.220304416331925</v>
+        <v>6.199438269404783</v>
       </c>
       <c r="F244">
-        <v>1.811081280402035</v>
+        <v>1.805005968718793</v>
       </c>
       <c r="G244">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="H244">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2016 - (mai 2022 - apr 2025)</t>
+          <t>2016 - (mar 2022 - feb 2025)</t>
         </is>
       </c>
       <c r="J244" s="2">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="K244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L244">
         <v>2025</v>
@@ -26282,10 +27355,10 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>1.005590100642179</v>
+        <v>1.005104293008248</v>
       </c>
       <c r="B245">
-        <v>0.5590100642179463</v>
+        <v>0.5104293008247662</v>
       </c>
       <c r="C245">
         <v>14</v>
@@ -26294,27 +27367,27 @@
         <v>11.79634308486062</v>
       </c>
       <c r="E245">
-        <v>6.272514923578123</v>
+        <v>6.207783490674507</v>
       </c>
       <c r="F245">
-        <v>1.82628270238801</v>
+        <v>1.807435733085747</v>
       </c>
       <c r="G245">
         <v>-3.4</v>
       </c>
       <c r="H245">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2016 - (jun 2022 - mai 2025)</t>
+          <t>2016 - (apr 2022 - mar 2025)</t>
         </is>
       </c>
       <c r="J245" s="2">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="K245">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L245">
         <v>2025</v>
@@ -26327,39 +27400,39 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>1.003162294142519</v>
+        <v>1.005635951975447</v>
       </c>
       <c r="B246">
-        <v>0.3162294142518896</v>
+        <v>0.5635951975446973</v>
       </c>
       <c r="C246">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D246">
-        <v>10.06975897260232</v>
+        <v>11.79634308486062</v>
       </c>
       <c r="E246">
-        <v>6.458209303978606</v>
+        <v>6.220304416331925</v>
       </c>
       <c r="F246">
-        <v>2.035178838207623</v>
+        <v>1.811081280402035</v>
       </c>
       <c r="G246">
-        <v>-4.2</v>
+        <v>-3.3</v>
       </c>
       <c r="H246">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2016 - (jul 2022 - jun 2025)</t>
+          <t>2016 - (mai 2022 - apr 2025)</t>
         </is>
       </c>
       <c r="J246" s="2">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="K246">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L246">
         <v>2025</v>
@@ -26372,39 +27445,39 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>1.01036992374874</v>
+        <v>1.005590100642179</v>
       </c>
       <c r="B247">
-        <v>1.036992374874024</v>
+        <v>0.5590100642179463</v>
       </c>
       <c r="C247">
         <v>14</v>
       </c>
       <c r="D247">
-        <v>11.39453179258513</v>
+        <v>11.79634308486062</v>
       </c>
       <c r="E247">
-        <v>5.959859584143754</v>
+        <v>6.272514923578123</v>
       </c>
       <c r="F247">
-        <v>1.765581564811284</v>
+        <v>1.82628270238801</v>
       </c>
       <c r="G247">
-        <v>-2.8</v>
+        <v>-3.4</v>
       </c>
       <c r="H247">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>2016 - (aug 2022 - jul 2025)</t>
+          <t>2016 - (jun 2022 - mai 2025)</t>
         </is>
       </c>
       <c r="J247" s="2">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="K247">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L247">
         <v>2025</v>
@@ -26417,39 +27490,39 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.011008463967791</v>
+        <v>1.003162294142519</v>
       </c>
       <c r="B248">
-        <v>1.100846396779143</v>
+        <v>0.3162294142518896</v>
       </c>
       <c r="C248">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D248">
-        <v>11.39453179258513</v>
+        <v>10.06975897260232</v>
       </c>
       <c r="E248">
-        <v>5.99877968793841</v>
+        <v>6.458209303978606</v>
       </c>
       <c r="F248">
-        <v>1.777111470304897</v>
+        <v>2.035178838207623</v>
       </c>
       <c r="G248">
-        <v>-2.7</v>
+        <v>-4.2</v>
       </c>
       <c r="H248">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>2016 - (sep 2022 - aug 2025)</t>
+          <t>2016 - (jul 2022 - jun 2025)</t>
         </is>
       </c>
       <c r="J248" s="2">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="K248">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L248">
         <v>2025</v>
@@ -26462,10 +27535,10 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>1.010872454298782</v>
+        <v>1.01036992374874</v>
       </c>
       <c r="B249">
-        <v>1.08724542987817</v>
+        <v>1.036992374874024</v>
       </c>
       <c r="C249">
         <v>14</v>
@@ -26474,10 +27547,10 @@
         <v>11.39453179258513</v>
       </c>
       <c r="E249">
-        <v>6.033522090044256</v>
+        <v>5.959859584143754</v>
       </c>
       <c r="F249">
-        <v>1.787403750485212</v>
+        <v>1.765581564811284</v>
       </c>
       <c r="G249">
         <v>-2.8</v>
@@ -26487,14 +27560,14 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>2016 - (okt 2022 - sep 2025)</t>
+          <t>2016 - (aug 2022 - jul 2025)</t>
         </is>
       </c>
       <c r="J249" s="2">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="K249">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L249">
         <v>2025</v>
@@ -26507,10 +27580,10 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>1.011897893838027</v>
+        <v>1.011008463967791</v>
       </c>
       <c r="B250">
-        <v>1.189789383802653</v>
+        <v>1.100846396779143</v>
       </c>
       <c r="C250">
         <v>14</v>
@@ -26519,32 +27592,167 @@
         <v>11.39453179258513</v>
       </c>
       <c r="E250">
-        <v>6.043578724874473</v>
+        <v>5.99877968793841</v>
       </c>
       <c r="F250">
-        <v>1.79038298326907</v>
+        <v>1.777111470304897</v>
       </c>
       <c r="G250">
         <v>-2.7</v>
       </c>
       <c r="H250">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>2016 - (nov 2022 - okt 2025)</t>
+          <t>2016 - (sep 2022 - aug 2025)</t>
         </is>
       </c>
       <c r="J250" s="2">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="K250">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L250">
         <v>2025</v>
       </c>
       <c r="M250" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>1.010872454298782</v>
+      </c>
+      <c r="B251">
+        <v>1.08724542987817</v>
+      </c>
+      <c r="C251">
+        <v>14</v>
+      </c>
+      <c r="D251">
+        <v>11.39453179258513</v>
+      </c>
+      <c r="E251">
+        <v>6.033522090044256</v>
+      </c>
+      <c r="F251">
+        <v>1.787403750485212</v>
+      </c>
+      <c r="G251">
+        <v>-2.8</v>
+      </c>
+      <c r="H251">
+        <v>4.9</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>2016 - (okt 2022 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J251" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K251">
+        <v>9</v>
+      </c>
+      <c r="L251">
+        <v>2025</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>1.011897893838027</v>
+      </c>
+      <c r="B252">
+        <v>1.189789383802653</v>
+      </c>
+      <c r="C252">
+        <v>14</v>
+      </c>
+      <c r="D252">
+        <v>11.39453179258513</v>
+      </c>
+      <c r="E252">
+        <v>6.043578724874473</v>
+      </c>
+      <c r="F252">
+        <v>1.79038298326907</v>
+      </c>
+      <c r="G252">
+        <v>-2.7</v>
+      </c>
+      <c r="H252">
+        <v>5.1</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>2016 - (nov 2022 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J252" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K252">
+        <v>10</v>
+      </c>
+      <c r="L252">
+        <v>2025</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>1.012082375902013</v>
+      </c>
+      <c r="B253">
+        <v>1.208237590201255</v>
+      </c>
+      <c r="C253">
+        <v>14</v>
+      </c>
+      <c r="D253">
+        <v>11.39453179258513</v>
+      </c>
+      <c r="E253">
+        <v>6.067259513188378</v>
+      </c>
+      <c r="F253">
+        <v>1.797398310173493</v>
+      </c>
+      <c r="G253">
+        <v>-2.7</v>
+      </c>
+      <c r="H253">
+        <v>5.1</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>2016 - (des 2022 - nov 2025)</t>
+        </is>
+      </c>
+      <c r="J253" s="2">
+        <v>45962</v>
+      </c>
+      <c r="K253">
+        <v>11</v>
+      </c>
+      <c r="L253">
+        <v>2025</v>
+      </c>
+      <c r="M253" t="inlineStr">
         <is>
           <t>36_months</t>
         </is>
